--- a/projet capstone/results/tables/anomaly_A2_by_ticker.xlsx
+++ b/projet capstone/results/tables/anomaly_A2_by_ticker.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -489,7 +489,7 @@
         <v>0.0370762403299395</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4350282485875706</v>
+        <v>0.4604519774011299</v>
       </c>
       <c r="F2" t="n">
         <v>353</v>
@@ -511,7 +511,7 @@
         <v>0.03239929977664302</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4891640866873065</v>
+        <v>0.4767801857585139</v>
       </c>
       <c r="F3" t="n">
         <v>323</v>
@@ -533,7 +533,7 @@
         <v>0.03391842042493361</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4745762711864407</v>
+        <v>0.480225988700565</v>
       </c>
       <c r="F4" t="n">
         <v>354</v>
@@ -555,7 +555,7 @@
         <v>0.04463080691502432</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4548104956268221</v>
+        <v>0.4577259475218659</v>
       </c>
       <c r="F5" t="n">
         <v>343</v>
@@ -577,7 +577,7 @@
         <v>0.03405256053926498</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5492957746478874</v>
+        <v>0.5380281690140845</v>
       </c>
       <c r="F6" t="n">
         <v>355</v>
@@ -599,7 +599,7 @@
         <v>0.03123037373127287</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4532163742690059</v>
+        <v>0.4590643274853801</v>
       </c>
       <c r="F7" t="n">
         <v>342</v>
@@ -643,7 +643,7 @@
         <v>0.03211964127129519</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4563380281690141</v>
+        <v>0.4422535211267606</v>
       </c>
       <c r="F9" t="n">
         <v>355</v>
@@ -665,7 +665,7 @@
         <v>0.03033734504930844</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4402332361516035</v>
+        <v>0.4577259475218659</v>
       </c>
       <c r="F10" t="n">
         <v>343</v>
@@ -709,7 +709,7 @@
         <v>0.03187331433767313</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5165165165165165</v>
+        <v>0.5075075075075075</v>
       </c>
       <c r="F12" t="n">
         <v>333</v>
@@ -731,7 +731,7 @@
         <v>0.02909844753329065</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4712990936555891</v>
+        <v>0.459214501510574</v>
       </c>
       <c r="F13" t="n">
         <v>331</v>
@@ -753,7 +753,7 @@
         <v>0.02303105940557216</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4491525423728814</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="F14" t="n">
         <v>353</v>
@@ -775,7 +775,7 @@
         <v>0.02827237069561907</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5356037151702786</v>
+        <v>0.5201238390092879</v>
       </c>
       <c r="F15" t="n">
         <v>323</v>
@@ -797,7 +797,7 @@
         <v>0.03019455282336805</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4632768361581921</v>
+        <v>0.4689265536723164</v>
       </c>
       <c r="F16" t="n">
         <v>354</v>
@@ -841,7 +841,7 @@
         <v>0.02565180266288268</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5183098591549296</v>
+        <v>0.5154929577464789</v>
       </c>
       <c r="F18" t="n">
         <v>355</v>
@@ -863,7 +863,7 @@
         <v>0.02282663272168574</v>
       </c>
       <c r="E19" t="n">
-        <v>0.456140350877193</v>
+        <v>0.4678362573099415</v>
       </c>
       <c r="F19" t="n">
         <v>342</v>
@@ -885,7 +885,7 @@
         <v>0.02230942583089952</v>
       </c>
       <c r="E20" t="n">
-        <v>0.480225988700565</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="F20" t="n">
         <v>354</v>
@@ -907,7 +907,7 @@
         <v>0.02659400657153234</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4873239436619718</v>
+        <v>0.4816901408450704</v>
       </c>
       <c r="F21" t="n">
         <v>355</v>
@@ -929,7 +929,7 @@
         <v>0.02684833962064759</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5072886297376094</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="F22" t="n">
         <v>343</v>
@@ -951,7 +951,7 @@
         <v>0.02495419285916044</v>
       </c>
       <c r="E23" t="n">
-        <v>0.536723163841808</v>
+        <v>0.5508474576271186</v>
       </c>
       <c r="F23" t="n">
         <v>354</v>
@@ -973,7 +973,7 @@
         <v>0.02692271654775923</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5045045045045045</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="F24" t="n">
         <v>333</v>
@@ -995,7 +995,7 @@
         <v>0.02235976526994311</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4441087613293052</v>
+        <v>0.4290030211480362</v>
       </c>
       <c r="F25" t="n">
         <v>331</v>
@@ -1017,7 +1017,7 @@
         <v>0.02540250287231205</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4830508474576271</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="F26" t="n">
         <v>353</v>
@@ -1039,7 +1039,7 @@
         <v>0.02770932205421332</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4613003095975232</v>
+        <v>0.4551083591331269</v>
       </c>
       <c r="F27" t="n">
         <v>323</v>
@@ -1061,7 +1061,7 @@
         <v>0.0314317811062641</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5028248587570622</v>
+        <v>0.4971751412429379</v>
       </c>
       <c r="F28" t="n">
         <v>354</v>
@@ -1083,7 +1083,7 @@
         <v>0.03222194923019193</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4897959183673469</v>
+        <v>0.5014577259475219</v>
       </c>
       <c r="F29" t="n">
         <v>343</v>
@@ -1105,7 +1105,7 @@
         <v>0.02214457338829126</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4788732394366197</v>
+        <v>0.4732394366197183</v>
       </c>
       <c r="F30" t="n">
         <v>355</v>
@@ -1149,7 +1149,7 @@
         <v>0.03581150472539067</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4661016949152542</v>
+        <v>0.4689265536723164</v>
       </c>
       <c r="F32" t="n">
         <v>354</v>
@@ -1171,7 +1171,7 @@
         <v>0.02190568722455809</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4788732394366197</v>
+        <v>0.4704225352112676</v>
       </c>
       <c r="F33" t="n">
         <v>355</v>
@@ -1215,7 +1215,7 @@
         <v>0.04617265018797392</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4576271186440678</v>
+        <v>0.4632768361581921</v>
       </c>
       <c r="F35" t="n">
         <v>354</v>
@@ -1259,7 +1259,7 @@
         <v>0.02060127750322617</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4894259818731118</v>
+        <v>0.4682779456193353</v>
       </c>
       <c r="F37" t="n">
         <v>331</v>
@@ -1281,7 +1281,7 @@
         <v>0.02852828051654572</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4406779661016949</v>
+        <v>0.4519774011299435</v>
       </c>
       <c r="F38" t="n">
         <v>353</v>
@@ -1303,7 +1303,7 @@
         <v>0.02533913265890685</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.4179566563467492</v>
       </c>
       <c r="F39" t="n">
         <v>323</v>
@@ -1325,7 +1325,7 @@
         <v>0.05002751765964682</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5169491525423728</v>
+        <v>0.5225988700564972</v>
       </c>
       <c r="F40" t="n">
         <v>354</v>
@@ -1347,7 +1347,7 @@
         <v>0.03617243141167887</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4927113702623906</v>
+        <v>0.4868804664723032</v>
       </c>
       <c r="F41" t="n">
         <v>343</v>
@@ -1369,7 +1369,7 @@
         <v>0.02806115935982162</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4647887323943662</v>
+        <v>0.4619718309859155</v>
       </c>
       <c r="F42" t="n">
         <v>355</v>
@@ -1413,7 +1413,7 @@
         <v>0.02544242109155519</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4519774011299435</v>
+        <v>0.4491525423728814</v>
       </c>
       <c r="F44" t="n">
         <v>354</v>
@@ -1435,7 +1435,7 @@
         <v>0.02677984479614597</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4732394366197183</v>
+        <v>0.4676056338028169</v>
       </c>
       <c r="F45" t="n">
         <v>355</v>
@@ -1457,7 +1457,7 @@
         <v>0.02962183389249392</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4314868804664723</v>
+        <v>0.446064139941691</v>
       </c>
       <c r="F46" t="n">
         <v>343</v>
@@ -1479,7 +1479,7 @@
         <v>0.02610923889511182</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4745762711864407</v>
+        <v>0.4717514124293785</v>
       </c>
       <c r="F47" t="n">
         <v>354</v>
@@ -1501,7 +1501,7 @@
         <v>0.03102490184897704</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4414414414414414</v>
+        <v>0.4294294294294294</v>
       </c>
       <c r="F48" t="n">
         <v>333</v>
@@ -1523,7 +1523,7 @@
         <v>0.02742292579695095</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3987915407854985</v>
+        <v>0.3927492447129909</v>
       </c>
       <c r="F49" t="n">
         <v>331</v>
@@ -1545,7 +1545,7 @@
         <v>0.02840376811008898</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4717514124293785</v>
+        <v>0.5</v>
       </c>
       <c r="F50" t="n">
         <v>353</v>
@@ -1589,7 +1589,7 @@
         <v>0.03249000859579546</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4604519774011299</v>
+        <v>0.4491525423728814</v>
       </c>
       <c r="F52" t="n">
         <v>354</v>
@@ -1611,7 +1611,7 @@
         <v>0.02706884196073315</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4897959183673469</v>
+        <v>0.4956268221574344</v>
       </c>
       <c r="F53" t="n">
         <v>343</v>
@@ -1633,7 +1633,7 @@
         <v>0.03400843754139812</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4873239436619718</v>
+        <v>0.4845070422535211</v>
       </c>
       <c r="F54" t="n">
         <v>355</v>
@@ -1655,7 +1655,7 @@
         <v>0.02664915637047649</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4853801169590643</v>
+        <v>0.4766081871345029</v>
       </c>
       <c r="F55" t="n">
         <v>342</v>
@@ -1677,7 +1677,7 @@
         <v>0.02513630665156383</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4378531073446328</v>
+        <v>0.4463276836158192</v>
       </c>
       <c r="F56" t="n">
         <v>354</v>
@@ -1699,7 +1699,7 @@
         <v>0.03331070112170457</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5042253521126761</v>
+        <v>0.4901408450704225</v>
       </c>
       <c r="F57" t="n">
         <v>355</v>
@@ -1721,7 +1721,7 @@
         <v>0.02295423365288961</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4956268221574344</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="F58" t="n">
         <v>343</v>
@@ -1743,7 +1743,7 @@
         <v>0.03227506049476146</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5451977401129944</v>
+        <v>0.5536723163841808</v>
       </c>
       <c r="F59" t="n">
         <v>354</v>
@@ -1765,7 +1765,7 @@
         <v>0.03645367821014614</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5225225225225225</v>
+        <v>0.5105105105105106</v>
       </c>
       <c r="F60" t="n">
         <v>333</v>
@@ -1787,7 +1787,7 @@
         <v>0.02765422730273846</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4652567975830816</v>
+        <v>0.4471299093655589</v>
       </c>
       <c r="F61" t="n">
         <v>331</v>
@@ -1809,7 +1809,7 @@
         <v>0.02696716781621724</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4774011299435028</v>
+        <v>0.5056497175141242</v>
       </c>
       <c r="F62" t="n">
         <v>353</v>
@@ -1831,7 +1831,7 @@
         <v>0.02936119363703972</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5139318885448917</v>
+        <v>0.5108359133126935</v>
       </c>
       <c r="F63" t="n">
         <v>323</v>
@@ -1853,7 +1853,7 @@
         <v>0.03954980873829549</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5112994350282486</v>
+        <v>0.5</v>
       </c>
       <c r="F64" t="n">
         <v>354</v>
@@ -1875,7 +1875,7 @@
         <v>0.05038698739329042</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4548104956268221</v>
+        <v>0.4664723032069971</v>
       </c>
       <c r="F65" t="n">
         <v>343</v>
@@ -1897,7 +1897,7 @@
         <v>0.03406691249730437</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4591549295774648</v>
+        <v>0.4450704225352113</v>
       </c>
       <c r="F66" t="n">
         <v>355</v>
@@ -1919,7 +1919,7 @@
         <v>0.03123208159303824</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4766081871345029</v>
+        <v>0.4883040935672515</v>
       </c>
       <c r="F67" t="n">
         <v>342</v>
@@ -1941,7 +1941,7 @@
         <v>0.03129067043938067</v>
       </c>
       <c r="E68" t="n">
-        <v>0.480225988700565</v>
+        <v>0.4830508474576271</v>
       </c>
       <c r="F68" t="n">
         <v>354</v>
@@ -1963,7 +1963,7 @@
         <v>0.03514684623078867</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4957746478873239</v>
+        <v>0.4845070422535211</v>
       </c>
       <c r="F69" t="n">
         <v>355</v>
@@ -1985,7 +1985,7 @@
         <v>0.02816689234125638</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4548104956268221</v>
+        <v>0.4577259475218659</v>
       </c>
       <c r="F70" t="n">
         <v>343</v>
@@ -2007,7 +2007,7 @@
         <v>0.03323937110392883</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4915254237288136</v>
+        <v>0.4943502824858757</v>
       </c>
       <c r="F71" t="n">
         <v>354</v>
@@ -2029,7 +2029,7 @@
         <v>0.03319113179205087</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5015015015015015</v>
+        <v>0.4954954954954955</v>
       </c>
       <c r="F72" t="n">
         <v>333</v>
@@ -2051,7 +2051,7 @@
         <v>0.02773610140303542</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5105740181268882</v>
+        <v>0.4954682779456193</v>
       </c>
       <c r="F73" t="n">
         <v>331</v>
@@ -2073,7 +2073,7 @@
         <v>0.0219660716169117</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4604519774011299</v>
+        <v>0.4858757062146893</v>
       </c>
       <c r="F74" t="n">
         <v>353</v>
@@ -2095,7 +2095,7 @@
         <v>0.02374397604737766</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4613003095975232</v>
+        <v>0.4396284829721362</v>
       </c>
       <c r="F75" t="n">
         <v>323</v>
@@ -2117,7 +2117,7 @@
         <v>0.04392234192923733</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4604519774011299</v>
+        <v>0.4632768361581921</v>
       </c>
       <c r="F76" t="n">
         <v>354</v>
@@ -2139,7 +2139,7 @@
         <v>0.03461626211011154</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4693877551020408</v>
+        <v>0.4839650145772595</v>
       </c>
       <c r="F77" t="n">
         <v>343</v>
@@ -2161,7 +2161,7 @@
         <v>0.02817405185758086</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4873239436619718</v>
+        <v>0.4901408450704225</v>
       </c>
       <c r="F78" t="n">
         <v>355</v>
@@ -2183,7 +2183,7 @@
         <v>0.03579430405374712</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5233918128654971</v>
+        <v>0.5146198830409356</v>
       </c>
       <c r="F79" t="n">
         <v>342</v>
@@ -2205,7 +2205,7 @@
         <v>0.02628036337304525</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4096045197740113</v>
+        <v>0.403954802259887</v>
       </c>
       <c r="F80" t="n">
         <v>354</v>
@@ -2227,7 +2227,7 @@
         <v>0.02424844448530064</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5098591549295775</v>
+        <v>0.5014084507042254</v>
       </c>
       <c r="F81" t="n">
         <v>355</v>
@@ -2249,7 +2249,7 @@
         <v>0.02684617553584526</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5014577259475219</v>
+        <v>0.5043731778425656</v>
       </c>
       <c r="F82" t="n">
         <v>343</v>
@@ -2271,7 +2271,7 @@
         <v>0.02487837817461538</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5028248587570622</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="F83" t="n">
         <v>354</v>
@@ -2293,7 +2293,7 @@
         <v>0.0346866823800654</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4594594594594595</v>
+        <v>0.4654654654654655</v>
       </c>
       <c r="F84" t="n">
         <v>333</v>
@@ -2315,7 +2315,7 @@
         <v>0.02313492987121468</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4984894259818731</v>
+        <v>0.4803625377643505</v>
       </c>
       <c r="F85" t="n">
         <v>331</v>
@@ -2337,7 +2337,7 @@
         <v>0.02757371394088752</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4689265536723164</v>
+        <v>0.4887005649717514</v>
       </c>
       <c r="F86" t="n">
         <v>353</v>
@@ -2381,7 +2381,7 @@
         <v>0.03124556084052681</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5056497175141242</v>
+        <v>0.5</v>
       </c>
       <c r="F88" t="n">
         <v>354</v>
@@ -2403,7 +2403,7 @@
         <v>0.02999842072141649</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4897959183673469</v>
+        <v>0.5014577259475219</v>
       </c>
       <c r="F89" t="n">
         <v>343</v>
@@ -2425,7 +2425,7 @@
         <v>0.03018367519644142</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4704225352112676</v>
+        <v>0.4676056338028169</v>
       </c>
       <c r="F90" t="n">
         <v>355</v>
@@ -2469,7 +2469,7 @@
         <v>0.02388506188407324</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4971751412429379</v>
+        <v>0.4943502824858757</v>
       </c>
       <c r="F92" t="n">
         <v>354</v>
@@ -2491,7 +2491,7 @@
         <v>0.02358914267180099</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5042253521126761</v>
+        <v>0.4957746478873239</v>
       </c>
       <c r="F93" t="n">
         <v>355</v>
@@ -2513,7 +2513,7 @@
         <v>0.02214217048579988</v>
       </c>
       <c r="E94" t="n">
-        <v>0.446064139941691</v>
+        <v>0.4518950437317784</v>
       </c>
       <c r="F94" t="n">
         <v>343</v>
@@ -2557,7 +2557,7 @@
         <v>0.02433885744661713</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5375375375375375</v>
+        <v>0.5435435435435435</v>
       </c>
       <c r="F96" t="n">
         <v>333</v>
@@ -2579,7 +2579,7 @@
         <v>0.02377838041208916</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4682779456193353</v>
+        <v>0.4441087613293052</v>
       </c>
       <c r="F97" t="n">
         <v>331</v>
@@ -2601,7 +2601,7 @@
         <v>0.02530908705894265</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4180790960451977</v>
+        <v>0.4350282485875706</v>
       </c>
       <c r="F98" t="n">
         <v>353</v>
@@ -2645,7 +2645,7 @@
         <v>0.04225442842400806</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5</v>
+        <v>0.5112994350282486</v>
       </c>
       <c r="F100" t="n">
         <v>354</v>
@@ -2667,7 +2667,7 @@
         <v>0.03049480278327239</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5072886297376094</v>
+        <v>0.4868804664723032</v>
       </c>
       <c r="F101" t="n">
         <v>343</v>
@@ -2689,7 +2689,7 @@
         <v>0.02473458898476339</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4366197183098591</v>
+        <v>0.4535211267605634</v>
       </c>
       <c r="F102" t="n">
         <v>355</v>
@@ -2711,7 +2711,7 @@
         <v>0.02813369778441881</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4766081871345029</v>
+        <v>0.4707602339181287</v>
       </c>
       <c r="F103" t="n">
         <v>342</v>
@@ -2733,7 +2733,7 @@
         <v>0.02147412519767438</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4519774011299435</v>
+        <v>0.4378531073446328</v>
       </c>
       <c r="F104" t="n">
         <v>354</v>
@@ -2755,7 +2755,7 @@
         <v>0.02397331789041302</v>
       </c>
       <c r="E105" t="n">
-        <v>0.4647887323943662</v>
+        <v>0.4676056338028169</v>
       </c>
       <c r="F105" t="n">
         <v>355</v>
@@ -2777,7 +2777,7 @@
         <v>0.02562717883574109</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4169096209912537</v>
+        <v>0.434402332361516</v>
       </c>
       <c r="F106" t="n">
         <v>343</v>
@@ -2799,7 +2799,7 @@
         <v>0.02421691872879436</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4745762711864407</v>
+        <v>0.4774011299435028</v>
       </c>
       <c r="F107" t="n">
         <v>354</v>
@@ -2821,7 +2821,7 @@
         <v>0.02932070244446095</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4294294294294294</v>
       </c>
       <c r="F108" t="n">
         <v>333</v>
@@ -2843,7 +2843,7 @@
         <v>0.02493241965382839</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4290030211480362</v>
+        <v>0.4138972809667674</v>
       </c>
       <c r="F109" t="n">
         <v>331</v>
@@ -2865,7 +2865,7 @@
         <v>0.02911469467441098</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4519774011299435</v>
+        <v>0.480225988700565</v>
       </c>
       <c r="F110" t="n">
         <v>353</v>
@@ -2887,7 +2887,7 @@
         <v>0.0255712011092351</v>
       </c>
       <c r="E111" t="n">
-        <v>0.4427244582043344</v>
+        <v>0.4365325077399381</v>
       </c>
       <c r="F111" t="n">
         <v>323</v>
@@ -2909,7 +2909,7 @@
         <v>0.03039263789930948</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4858757062146893</v>
+        <v>0.4830508474576271</v>
       </c>
       <c r="F112" t="n">
         <v>354</v>
@@ -2931,7 +2931,7 @@
         <v>0.02478926162310461</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4635568513119533</v>
+        <v>0.4664723032069971</v>
       </c>
       <c r="F113" t="n">
         <v>343</v>
@@ -2953,7 +2953,7 @@
         <v>0.0274753945049954</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4929577464788732</v>
+        <v>0.4873239436619718</v>
       </c>
       <c r="F114" t="n">
         <v>355</v>
@@ -2975,7 +2975,7 @@
         <v>0.02594185875153827</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5672514619883041</v>
+        <v>0.564327485380117</v>
       </c>
       <c r="F115" t="n">
         <v>342</v>
@@ -2997,7 +2997,7 @@
         <v>0.03096535006597727</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4971751412429379</v>
+        <v>0.5141242937853108</v>
       </c>
       <c r="F116" t="n">
         <v>354</v>
@@ -3019,7 +3019,7 @@
         <v>0.03372578625708806</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5464788732394367</v>
+        <v>0.5323943661971831</v>
       </c>
       <c r="F117" t="n">
         <v>355</v>
@@ -3041,7 +3041,7 @@
         <v>0.03052006643862158</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4752186588921283</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="F118" t="n">
         <v>343</v>
@@ -3063,7 +3063,7 @@
         <v>0.03164575217451141</v>
       </c>
       <c r="E119" t="n">
-        <v>0.4293785310734463</v>
+        <v>0.4378531073446328</v>
       </c>
       <c r="F119" t="n">
         <v>354</v>
@@ -3085,7 +3085,7 @@
         <v>0.03730306666300678</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5225225225225225</v>
+        <v>0.5315315315315315</v>
       </c>
       <c r="F120" t="n">
         <v>333</v>
@@ -3107,7 +3107,7 @@
         <v>0.02263405359386371</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5287009063444109</v>
+        <v>0.4984894259818731</v>
       </c>
       <c r="F121" t="n">
         <v>331</v>
@@ -3129,7 +3129,7 @@
         <v>0.02597811004037737</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4435028248587571</v>
+        <v>0.4661016949152542</v>
       </c>
       <c r="F122" t="n">
         <v>353</v>
@@ -3151,7 +3151,7 @@
         <v>0.02668198627829109</v>
       </c>
       <c r="E123" t="n">
-        <v>0.4551083591331269</v>
+        <v>0.4674922600619195</v>
       </c>
       <c r="F123" t="n">
         <v>323</v>
@@ -3173,7 +3173,7 @@
         <v>0.03631957113131756</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5225988700564972</v>
+        <v>0.519774011299435</v>
       </c>
       <c r="F124" t="n">
         <v>354</v>
@@ -3195,7 +3195,7 @@
         <v>0.02921935671113817</v>
       </c>
       <c r="E125" t="n">
-        <v>0.5335276967930029</v>
+        <v>0.5247813411078717</v>
       </c>
       <c r="F125" t="n">
         <v>343</v>
@@ -3217,7 +3217,7 @@
         <v>0.02417311617777762</v>
       </c>
       <c r="E126" t="n">
-        <v>0.4676056338028169</v>
+        <v>0.4591549295774648</v>
       </c>
       <c r="F126" t="n">
         <v>355</v>
@@ -3283,7 +3283,7 @@
         <v>0.02459487502833998</v>
       </c>
       <c r="E129" t="n">
-        <v>0.4788732394366197</v>
+        <v>0.4816901408450704</v>
       </c>
       <c r="F129" t="n">
         <v>355</v>
@@ -3305,7 +3305,7 @@
         <v>0.02376032589915732</v>
       </c>
       <c r="E130" t="n">
-        <v>0.4402332361516035</v>
+        <v>0.434402332361516</v>
       </c>
       <c r="F130" t="n">
         <v>343</v>
@@ -3349,7 +3349,7 @@
         <v>0.02533640502177111</v>
       </c>
       <c r="E132" t="n">
-        <v>0.4114114114114114</v>
+        <v>0.4144144144144144</v>
       </c>
       <c r="F132" t="n">
         <v>333</v>
@@ -3371,7 +3371,7 @@
         <v>0.02447017828995026</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3987915407854985</v>
+        <v>0.3836858006042296</v>
       </c>
       <c r="F133" t="n">
         <v>331</v>
@@ -3393,7 +3393,7 @@
         <v>0.01756172082862994</v>
       </c>
       <c r="E134" t="n">
-        <v>0.4378531073446328</v>
+        <v>0.4632768361581921</v>
       </c>
       <c r="F134" t="n">
         <v>353</v>
@@ -3415,7 +3415,7 @@
         <v>0.03114658392588046</v>
       </c>
       <c r="E135" t="n">
-        <v>0.4953560371517028</v>
+        <v>0.4798761609907121</v>
       </c>
       <c r="F135" t="n">
         <v>323</v>
@@ -3437,7 +3437,7 @@
         <v>0.02938309019575943</v>
       </c>
       <c r="E136" t="n">
-        <v>0.480225988700565</v>
+        <v>0.4830508474576271</v>
       </c>
       <c r="F136" t="n">
         <v>354</v>
@@ -3459,7 +3459,7 @@
         <v>0.02978197313660066</v>
       </c>
       <c r="E137" t="n">
-        <v>0.4868804664723032</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="F137" t="n">
         <v>343</v>
@@ -3481,7 +3481,7 @@
         <v>0.02616640513960041</v>
       </c>
       <c r="E138" t="n">
-        <v>0.4816901408450704</v>
+        <v>0.4845070422535211</v>
       </c>
       <c r="F138" t="n">
         <v>355</v>
@@ -3503,7 +3503,7 @@
         <v>0.02269864416942152</v>
       </c>
       <c r="E139" t="n">
-        <v>0.4970760233918128</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="F139" t="n">
         <v>342</v>
@@ -3525,7 +3525,7 @@
         <v>0.02778526208829209</v>
       </c>
       <c r="E140" t="n">
-        <v>0.4971751412429379</v>
+        <v>0.4774011299435028</v>
       </c>
       <c r="F140" t="n">
         <v>354</v>
@@ -3547,7 +3547,7 @@
         <v>0.02372762876492282</v>
       </c>
       <c r="E141" t="n">
-        <v>0.4985915492957746</v>
+        <v>0.5014084507042254</v>
       </c>
       <c r="F141" t="n">
         <v>355</v>
@@ -3569,7 +3569,7 @@
         <v>0.01924116662775053</v>
       </c>
       <c r="E142" t="n">
-        <v>0.5043731778425656</v>
+        <v>0.5072886297376094</v>
       </c>
       <c r="F142" t="n">
         <v>343</v>
@@ -3613,7 +3613,7 @@
         <v>0.03329475329881691</v>
       </c>
       <c r="E144" t="n">
-        <v>0.4594594594594595</v>
+        <v>0.4534534534534534</v>
       </c>
       <c r="F144" t="n">
         <v>333</v>
@@ -3635,7 +3635,7 @@
         <v>0.01859785492675855</v>
       </c>
       <c r="E145" t="n">
-        <v>0.4622356495468278</v>
+        <v>0.4501510574018127</v>
       </c>
       <c r="F145" t="n">
         <v>331</v>
@@ -3657,7 +3657,7 @@
         <v>0.02992091766091965</v>
       </c>
       <c r="E146" t="n">
-        <v>0.4293785310734463</v>
+        <v>0.4491525423728814</v>
       </c>
       <c r="F146" t="n">
         <v>353</v>
@@ -3679,7 +3679,7 @@
         <v>0.03559683423326489</v>
       </c>
       <c r="E147" t="n">
-        <v>0.4922600619195047</v>
+        <v>0.4891640866873065</v>
       </c>
       <c r="F147" t="n">
         <v>323</v>
@@ -3701,7 +3701,7 @@
         <v>0.03205553141591611</v>
       </c>
       <c r="E148" t="n">
-        <v>0.4774011299435028</v>
+        <v>0.4689265536723164</v>
       </c>
       <c r="F148" t="n">
         <v>354</v>
@@ -3723,7 +3723,7 @@
         <v>0.04047248490607842</v>
       </c>
       <c r="E149" t="n">
-        <v>0.4431486880466473</v>
+        <v>0.4373177842565598</v>
       </c>
       <c r="F149" t="n">
         <v>343</v>
@@ -3745,7 +3745,7 @@
         <v>0.03696322455268142</v>
       </c>
       <c r="E150" t="n">
-        <v>0.4309859154929577</v>
+        <v>0.447887323943662</v>
       </c>
       <c r="F150" t="n">
         <v>355</v>
@@ -3767,7 +3767,7 @@
         <v>0.03305591642042029</v>
       </c>
       <c r="E151" t="n">
-        <v>0.4766081871345029</v>
+        <v>0.4678362573099415</v>
       </c>
       <c r="F151" t="n">
         <v>342</v>
@@ -3789,7 +3789,7 @@
         <v>0.02811076384928461</v>
       </c>
       <c r="E152" t="n">
-        <v>0.4632768361581921</v>
+        <v>0.4717514124293785</v>
       </c>
       <c r="F152" t="n">
         <v>354</v>
@@ -3811,7 +3811,7 @@
         <v>0.0337027490584423</v>
       </c>
       <c r="E153" t="n">
-        <v>0.5154929577464789</v>
+        <v>0.5042253521126761</v>
       </c>
       <c r="F153" t="n">
         <v>355</v>
@@ -3833,7 +3833,7 @@
         <v>0.02861273295640158</v>
       </c>
       <c r="E154" t="n">
-        <v>0.4314868804664723</v>
+        <v>0.4373177842565598</v>
       </c>
       <c r="F154" t="n">
         <v>343</v>
@@ -3855,7 +3855,7 @@
         <v>0.03900153937456629</v>
       </c>
       <c r="E155" t="n">
-        <v>0.5225988700564972</v>
+        <v>0.5310734463276836</v>
       </c>
       <c r="F155" t="n">
         <v>354</v>
@@ -3877,7 +3877,7 @@
         <v>0.0317246641311139</v>
       </c>
       <c r="E156" t="n">
-        <v>0.4774774774774775</v>
+        <v>0.4684684684684685</v>
       </c>
       <c r="F156" t="n">
         <v>333</v>
@@ -3899,7 +3899,7 @@
         <v>0.03004731154594638</v>
       </c>
       <c r="E157" t="n">
-        <v>0.43202416918429</v>
+        <v>0.4169184290030212</v>
       </c>
       <c r="F157" t="n">
         <v>331</v>
@@ -3921,7 +3921,7 @@
         <v>0.02627150598830625</v>
       </c>
       <c r="E158" t="n">
-        <v>0.5225988700564972</v>
+        <v>0.5480225988700564</v>
       </c>
       <c r="F158" t="n">
         <v>353</v>
@@ -3943,7 +3943,7 @@
         <v>0.02387110003688913</v>
       </c>
       <c r="E159" t="n">
-        <v>0.5232198142414861</v>
+        <v>0.5170278637770898</v>
       </c>
       <c r="F159" t="n">
         <v>323</v>
@@ -3965,7 +3965,7 @@
         <v>0.02752906998915416</v>
       </c>
       <c r="E160" t="n">
-        <v>0.4971751412429379</v>
+        <v>0.4943502824858757</v>
       </c>
       <c r="F160" t="n">
         <v>354</v>
@@ -3987,7 +3987,7 @@
         <v>0.02696071828158787</v>
       </c>
       <c r="E161" t="n">
-        <v>0.4752186588921283</v>
+        <v>0.4810495626822158</v>
       </c>
       <c r="F161" t="n">
         <v>343</v>
@@ -4009,7 +4009,7 @@
         <v>0.02372206633020485</v>
       </c>
       <c r="E162" t="n">
-        <v>0.5154929577464789</v>
+        <v>0.5042253521126761</v>
       </c>
       <c r="F162" t="n">
         <v>355</v>
@@ -4031,7 +4031,7 @@
         <v>0.02053015545882478</v>
       </c>
       <c r="E163" t="n">
-        <v>0.5116959064327485</v>
+        <v>0.5146198830409356</v>
       </c>
       <c r="F163" t="n">
         <v>342</v>
@@ -4053,7 +4053,7 @@
         <v>0.02532571997194818</v>
       </c>
       <c r="E164" t="n">
-        <v>0.4858757062146893</v>
+        <v>0.4887005649717514</v>
       </c>
       <c r="F164" t="n">
         <v>354</v>
@@ -4075,7 +4075,7 @@
         <v>0.03319369381288476</v>
       </c>
       <c r="E165" t="n">
-        <v>0.5323943661971831</v>
+        <v>0.523943661971831</v>
       </c>
       <c r="F165" t="n">
         <v>355</v>
@@ -4097,7 +4097,7 @@
         <v>0.01967244051544475</v>
       </c>
       <c r="E166" t="n">
-        <v>0.4810495626822158</v>
+        <v>0.4985422740524781</v>
       </c>
       <c r="F166" t="n">
         <v>343</v>
@@ -4119,7 +4119,7 @@
         <v>0.02903414470370766</v>
       </c>
       <c r="E167" t="n">
-        <v>0.5056497175141242</v>
+        <v>0.5</v>
       </c>
       <c r="F167" t="n">
         <v>354</v>
@@ -4141,7 +4141,7 @@
         <v>0.0265075485226916</v>
       </c>
       <c r="E168" t="n">
-        <v>0.4954954954954955</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="F168" t="n">
         <v>333</v>
@@ -4163,7 +4163,7 @@
         <v>0.02115755827363151</v>
       </c>
       <c r="E169" t="n">
-        <v>0.5045317220543807</v>
+        <v>0.4924471299093656</v>
       </c>
       <c r="F169" t="n">
         <v>331</v>
@@ -4185,7 +4185,7 @@
         <v>0.03303019560602881</v>
       </c>
       <c r="E170" t="n">
-        <v>0.4265536723163842</v>
+        <v>0.4548022598870056</v>
       </c>
       <c r="F170" t="n">
         <v>353</v>
@@ -4207,7 +4207,7 @@
         <v>0.03364220504063609</v>
       </c>
       <c r="E171" t="n">
-        <v>0.4520123839009288</v>
+        <v>0.4489164086687307</v>
       </c>
       <c r="F171" t="n">
         <v>323</v>
@@ -4251,7 +4251,7 @@
         <v>0.03390391143151465</v>
       </c>
       <c r="E173" t="n">
-        <v>0.4752186588921283</v>
+        <v>0.4635568513119533</v>
       </c>
       <c r="F173" t="n">
         <v>343</v>
@@ -4273,7 +4273,7 @@
         <v>0.02645273782954539</v>
       </c>
       <c r="E174" t="n">
-        <v>0.4309859154929577</v>
+        <v>0.4450704225352113</v>
       </c>
       <c r="F174" t="n">
         <v>355</v>
@@ -4295,7 +4295,7 @@
         <v>0.02756974666769063</v>
       </c>
       <c r="E175" t="n">
-        <v>0.5146198830409356</v>
+        <v>0.5029239766081871</v>
       </c>
       <c r="F175" t="n">
         <v>342</v>
@@ -4317,7 +4317,7 @@
         <v>0.02777137218679904</v>
       </c>
       <c r="E176" t="n">
-        <v>0.4491525423728814</v>
+        <v>0.4463276836158192</v>
       </c>
       <c r="F176" t="n">
         <v>354</v>
@@ -4361,7 +4361,7 @@
         <v>0.02998890849268905</v>
       </c>
       <c r="E178" t="n">
-        <v>0.4577259475218659</v>
+        <v>0.4635568513119533</v>
       </c>
       <c r="F178" t="n">
         <v>343</v>
@@ -4383,7 +4383,7 @@
         <v>0.02705495920524912</v>
       </c>
       <c r="E179" t="n">
-        <v>0.4745762711864407</v>
+        <v>0.4830508474576271</v>
       </c>
       <c r="F179" t="n">
         <v>354</v>
@@ -4405,7 +4405,7 @@
         <v>0.02857720199939666</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4504504504504505</v>
+        <v>0.4384384384384384</v>
       </c>
       <c r="F180" t="n">
         <v>333</v>
@@ -4427,7 +4427,7 @@
         <v>0.0270217266902818</v>
       </c>
       <c r="E181" t="n">
-        <v>0.5075528700906344</v>
+        <v>0.4894259818731118</v>
       </c>
       <c r="F181" t="n">
         <v>331</v>
@@ -4443,16 +4443,16 @@
         <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.0005835162128922411</v>
+        <v>-0.0006185622316845679</v>
       </c>
       <c r="D182" t="n">
-        <v>0.0227457039855546</v>
+        <v>0.02342033296317884</v>
       </c>
       <c r="E182" t="n">
-        <v>0.4350282485875706</v>
+        <v>0.4654654654654655</v>
       </c>
       <c r="F182" t="n">
-        <v>353</v>
+        <v>333</v>
       </c>
     </row>
     <row r="183">
@@ -4465,16 +4465,16 @@
         <v>2</v>
       </c>
       <c r="C183" t="n">
-        <v>0.002546232337941168</v>
+        <v>0.002619213519601902</v>
       </c>
       <c r="D183" t="n">
-        <v>0.03129681448642263</v>
+        <v>0.03174055921614806</v>
       </c>
       <c r="E183" t="n">
-        <v>0.4860681114551084</v>
+        <v>0.4825396825396825</v>
       </c>
       <c r="F183" t="n">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="184">
@@ -4493,7 +4493,7 @@
         <v>0.02583520382153669</v>
       </c>
       <c r="E184" t="n">
-        <v>0.4830508474576271</v>
+        <v>0.480225988700565</v>
       </c>
       <c r="F184" t="n">
         <v>354</v>
@@ -4515,7 +4515,7 @@
         <v>0.02519298018784002</v>
       </c>
       <c r="E185" t="n">
-        <v>0.478134110787172</v>
+        <v>0.4723032069970846</v>
       </c>
       <c r="F185" t="n">
         <v>343</v>
@@ -4537,7 +4537,7 @@
         <v>0.03020336396254502</v>
       </c>
       <c r="E186" t="n">
-        <v>0.4957746478873239</v>
+        <v>0.4873239436619718</v>
       </c>
       <c r="F186" t="n">
         <v>355</v>
@@ -4559,7 +4559,7 @@
         <v>0.02498753222072343</v>
       </c>
       <c r="E187" t="n">
-        <v>0.5029239766081871</v>
+        <v>0.52046783625731</v>
       </c>
       <c r="F187" t="n">
         <v>342</v>
@@ -4581,7 +4581,7 @@
         <v>0.0239842885717417</v>
       </c>
       <c r="E188" t="n">
-        <v>0.5</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="F188" t="n">
         <v>354</v>
@@ -4603,7 +4603,7 @@
         <v>0.02893917265989913</v>
       </c>
       <c r="E189" t="n">
-        <v>0.5267605633802817</v>
+        <v>0.5295774647887324</v>
       </c>
       <c r="F189" t="n">
         <v>355</v>
@@ -4647,7 +4647,7 @@
         <v>0.03177777259954154</v>
       </c>
       <c r="E191" t="n">
-        <v>0.5225988700564972</v>
+        <v>0.519774011299435</v>
       </c>
       <c r="F191" t="n">
         <v>354</v>
@@ -4691,7 +4691,7 @@
         <v>0.0193196074021189</v>
       </c>
       <c r="E193" t="n">
-        <v>0.4229607250755287</v>
+        <v>0.4048338368580061</v>
       </c>
       <c r="F193" t="n">
         <v>331</v>
@@ -4713,7 +4713,7 @@
         <v>0.02176014404906565</v>
       </c>
       <c r="E194" t="n">
-        <v>0.480225988700565</v>
+        <v>0.4943502824858757</v>
       </c>
       <c r="F194" t="n">
         <v>353</v>
@@ -4735,7 +4735,7 @@
         <v>0.02125821935128585</v>
       </c>
       <c r="E195" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4272445820433436</v>
       </c>
       <c r="F195" t="n">
         <v>323</v>
@@ -4757,7 +4757,7 @@
         <v>0.03972316289445649</v>
       </c>
       <c r="E196" t="n">
-        <v>0.4491525423728814</v>
+        <v>0.4632768361581921</v>
       </c>
       <c r="F196" t="n">
         <v>354</v>
@@ -4779,7 +4779,7 @@
         <v>0.02979224027104656</v>
       </c>
       <c r="E197" t="n">
-        <v>0.4927113702623906</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="F197" t="n">
         <v>343</v>
@@ -4801,7 +4801,7 @@
         <v>0.02451254523493412</v>
       </c>
       <c r="E198" t="n">
-        <v>0.4507042253521127</v>
+        <v>0.4647887323943662</v>
       </c>
       <c r="F198" t="n">
         <v>355</v>
@@ -4823,7 +4823,7 @@
         <v>0.02882787176201316</v>
       </c>
       <c r="E199" t="n">
-        <v>0.52046783625731</v>
+        <v>0.5175438596491229</v>
       </c>
       <c r="F199" t="n">
         <v>342</v>
@@ -4845,7 +4845,7 @@
         <v>0.02277524532035856</v>
       </c>
       <c r="E200" t="n">
-        <v>0.4576271186440678</v>
+        <v>0.4463276836158192</v>
       </c>
       <c r="F200" t="n">
         <v>354</v>
@@ -4867,7 +4867,7 @@
         <v>0.02343542880155958</v>
       </c>
       <c r="E201" t="n">
-        <v>0.4535211267605634</v>
+        <v>0.447887323943662</v>
       </c>
       <c r="F201" t="n">
         <v>355</v>
@@ -4889,7 +4889,7 @@
         <v>0.02402314696279888</v>
       </c>
       <c r="E202" t="n">
-        <v>0.4314868804664723</v>
+        <v>0.446064139941691</v>
       </c>
       <c r="F202" t="n">
         <v>343</v>
@@ -4911,7 +4911,7 @@
         <v>0.0265868806032754</v>
       </c>
       <c r="E203" t="n">
-        <v>0.4915254237288136</v>
+        <v>0.4971751412429379</v>
       </c>
       <c r="F203" t="n">
         <v>354</v>
@@ -4933,7 +4933,7 @@
         <v>0.0270449014032467</v>
       </c>
       <c r="E204" t="n">
-        <v>0.4714714714714714</v>
+        <v>0.4684684684684685</v>
       </c>
       <c r="F204" t="n">
         <v>333</v>
@@ -4955,7 +4955,7 @@
         <v>0.02130984451298523</v>
       </c>
       <c r="E205" t="n">
-        <v>0.4380664652567976</v>
+        <v>0.4138972809667674</v>
       </c>
       <c r="F205" t="n">
         <v>331</v>
@@ -4977,7 +4977,7 @@
         <v>0.02314825341912552</v>
       </c>
       <c r="E206" t="n">
-        <v>0.4152542372881356</v>
+        <v>0.4350282485875706</v>
       </c>
       <c r="F206" t="n">
         <v>353</v>
@@ -4999,7 +4999,7 @@
         <v>0.01859140717088363</v>
       </c>
       <c r="E207" t="n">
-        <v>0.4582043343653251</v>
+        <v>0.4551083591331269</v>
       </c>
       <c r="F207" t="n">
         <v>323</v>
@@ -5043,7 +5043,7 @@
         <v>0.02203578799954962</v>
       </c>
       <c r="E209" t="n">
-        <v>0.4897959183673469</v>
+        <v>0.4927113702623906</v>
       </c>
       <c r="F209" t="n">
         <v>343</v>
@@ -5065,7 +5065,7 @@
         <v>0.02476986443549089</v>
       </c>
       <c r="E210" t="n">
-        <v>0.4704225352112676</v>
+        <v>0.4676056338028169</v>
       </c>
       <c r="F210" t="n">
         <v>355</v>
@@ -5109,7 +5109,7 @@
         <v>0.01931113709025727</v>
       </c>
       <c r="E212" t="n">
-        <v>0.4519774011299435</v>
+        <v>0.4548022598870056</v>
       </c>
       <c r="F212" t="n">
         <v>354</v>
@@ -5131,7 +5131,7 @@
         <v>0.02414456147431351</v>
       </c>
       <c r="E213" t="n">
-        <v>0.5183098591549296</v>
+        <v>0.5126760563380282</v>
       </c>
       <c r="F213" t="n">
         <v>355</v>
@@ -5175,7 +5175,7 @@
         <v>0.02271115319839198</v>
       </c>
       <c r="E215" t="n">
-        <v>0.4406779661016949</v>
+        <v>0.4463276836158192</v>
       </c>
       <c r="F215" t="n">
         <v>354</v>
@@ -5197,7 +5197,7 @@
         <v>0.0228601042044222</v>
       </c>
       <c r="E216" t="n">
-        <v>0.5165165165165165</v>
+        <v>0.5225225225225225</v>
       </c>
       <c r="F216" t="n">
         <v>333</v>
@@ -5219,7 +5219,7 @@
         <v>0.02928865416766081</v>
       </c>
       <c r="E217" t="n">
-        <v>0.5045317220543807</v>
+        <v>0.4773413897280967</v>
       </c>
       <c r="F217" t="n">
         <v>331</v>
@@ -5241,7 +5241,7 @@
         <v>0.0229915611052346</v>
       </c>
       <c r="E218" t="n">
-        <v>0.4745762711864407</v>
+        <v>0.5028248587570622</v>
       </c>
       <c r="F218" t="n">
         <v>353</v>
@@ -5263,7 +5263,7 @@
         <v>0.02723894999902839</v>
       </c>
       <c r="E219" t="n">
-        <v>0.4860681114551084</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="F219" t="n">
         <v>323</v>
@@ -5285,7 +5285,7 @@
         <v>0.04223942536826287</v>
       </c>
       <c r="E220" t="n">
-        <v>0.4378531073446328</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="F220" t="n">
         <v>354</v>
@@ -5307,7 +5307,7 @@
         <v>0.03118836980932541</v>
       </c>
       <c r="E221" t="n">
-        <v>0.5072886297376094</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="F221" t="n">
         <v>343</v>
@@ -5329,7 +5329,7 @@
         <v>0.02786548040544237</v>
       </c>
       <c r="E222" t="n">
-        <v>0.4535211267605634</v>
+        <v>0.4394366197183099</v>
       </c>
       <c r="F222" t="n">
         <v>355</v>
@@ -5351,7 +5351,7 @@
         <v>0.02895000198552504</v>
       </c>
       <c r="E223" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.4853801169590643</v>
       </c>
       <c r="F223" t="n">
         <v>342</v>
@@ -5373,7 +5373,7 @@
         <v>0.02230861339615319</v>
       </c>
       <c r="E224" t="n">
-        <v>0.4858757062146893</v>
+        <v>0.480225988700565</v>
       </c>
       <c r="F224" t="n">
         <v>354</v>
@@ -5395,7 +5395,7 @@
         <v>0.02852311185966538</v>
       </c>
       <c r="E225" t="n">
-        <v>0.4845070422535211</v>
+        <v>0.4816901408450704</v>
       </c>
       <c r="F225" t="n">
         <v>355</v>
@@ -5417,7 +5417,7 @@
         <v>0.02141993255177808</v>
       </c>
       <c r="E226" t="n">
-        <v>0.4927113702623906</v>
+        <v>0.4956268221574344</v>
       </c>
       <c r="F226" t="n">
         <v>343</v>
@@ -5439,7 +5439,7 @@
         <v>0.02682490135093244</v>
       </c>
       <c r="E227" t="n">
-        <v>0.4915254237288136</v>
+        <v>0.5</v>
       </c>
       <c r="F227" t="n">
         <v>354</v>
@@ -5461,7 +5461,7 @@
         <v>0.02461520107621889</v>
       </c>
       <c r="E228" t="n">
-        <v>0.4684684684684685</v>
+        <v>0.4624624624624625</v>
       </c>
       <c r="F228" t="n">
         <v>333</v>
@@ -5483,7 +5483,7 @@
         <v>0.02180221575858186</v>
       </c>
       <c r="E229" t="n">
-        <v>0.4894259818731118</v>
+        <v>0.4712990936555891</v>
       </c>
       <c r="F229" t="n">
         <v>331</v>
@@ -5505,7 +5505,7 @@
         <v>0.02960995035828076</v>
       </c>
       <c r="E230" t="n">
-        <v>0.480225988700565</v>
+        <v>0.5028248587570622</v>
       </c>
       <c r="F230" t="n">
         <v>353</v>
@@ -5549,7 +5549,7 @@
         <v>0.03676936183208336</v>
       </c>
       <c r="E232" t="n">
-        <v>0.4774011299435028</v>
+        <v>0.4689265536723164</v>
       </c>
       <c r="F232" t="n">
         <v>354</v>
@@ -5571,7 +5571,7 @@
         <v>0.03228510166740214</v>
       </c>
       <c r="E233" t="n">
-        <v>0.446064139941691</v>
+        <v>0.4518950437317784</v>
       </c>
       <c r="F233" t="n">
         <v>343</v>
@@ -5593,7 +5593,7 @@
         <v>0.02636682484065547</v>
       </c>
       <c r="E234" t="n">
-        <v>0.543661971830986</v>
+        <v>0.5464788732394367</v>
       </c>
       <c r="F234" t="n">
         <v>355</v>
@@ -5615,7 +5615,7 @@
         <v>0.03174618427128455</v>
       </c>
       <c r="E235" t="n">
-        <v>0.4941520467836257</v>
+        <v>0.4824561403508772</v>
       </c>
       <c r="F235" t="n">
         <v>342</v>
@@ -5637,7 +5637,7 @@
         <v>0.02689718309318561</v>
       </c>
       <c r="E236" t="n">
-        <v>0.423728813559322</v>
+        <v>0.4322033898305085</v>
       </c>
       <c r="F236" t="n">
         <v>354</v>
@@ -5659,7 +5659,7 @@
         <v>0.02905780679926065</v>
       </c>
       <c r="E237" t="n">
-        <v>0.4816901408450704</v>
+        <v>0.4704225352112676</v>
       </c>
       <c r="F237" t="n">
         <v>355</v>
@@ -5681,7 +5681,7 @@
         <v>0.02960753374916444</v>
       </c>
       <c r="E238" t="n">
-        <v>0.5306122448979592</v>
+        <v>0.5364431486880467</v>
       </c>
       <c r="F238" t="n">
         <v>343</v>
@@ -5703,7 +5703,7 @@
         <v>0.02870847019034829</v>
       </c>
       <c r="E239" t="n">
-        <v>0.4717514124293785</v>
+        <v>0.4774011299435028</v>
       </c>
       <c r="F239" t="n">
         <v>354</v>
@@ -5725,7 +5725,7 @@
         <v>0.02938846334692633</v>
       </c>
       <c r="E240" t="n">
-        <v>0.5045045045045045</v>
+        <v>0.4954954954954955</v>
       </c>
       <c r="F240" t="n">
         <v>333</v>
@@ -5747,7 +5747,7 @@
         <v>0.02862433479854808</v>
       </c>
       <c r="E241" t="n">
-        <v>0.4531722054380665</v>
+        <v>0.4410876132930514</v>
       </c>
       <c r="F241" t="n">
         <v>331</v>
@@ -5769,7 +5769,7 @@
         <v>0.02343059254366996</v>
       </c>
       <c r="E242" t="n">
-        <v>0.4350282485875706</v>
+        <v>0.4689265536723164</v>
       </c>
       <c r="F242" t="n">
         <v>353</v>
@@ -5791,7 +5791,7 @@
         <v>0.02669162855642988</v>
       </c>
       <c r="E243" t="n">
-        <v>0.4984520123839009</v>
+        <v>0.4829721362229102</v>
       </c>
       <c r="F243" t="n">
         <v>323</v>
@@ -5813,7 +5813,7 @@
         <v>0.03409693492700736</v>
       </c>
       <c r="E244" t="n">
-        <v>0.4971751412429379</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="F244" t="n">
         <v>354</v>
@@ -5835,7 +5835,7 @@
         <v>0.02968395778806691</v>
       </c>
       <c r="E245" t="n">
-        <v>0.4956268221574344</v>
+        <v>0.5014577259475219</v>
       </c>
       <c r="F245" t="n">
         <v>343</v>
@@ -5879,7 +5879,7 @@
         <v>0.02270395686620584</v>
       </c>
       <c r="E247" t="n">
-        <v>0.5175438596491229</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="F247" t="n">
         <v>342</v>
@@ -5901,7 +5901,7 @@
         <v>0.02246512398551999</v>
       </c>
       <c r="E248" t="n">
-        <v>0.4830508474576271</v>
+        <v>0.4887005649717514</v>
       </c>
       <c r="F248" t="n">
         <v>354</v>
@@ -5923,7 +5923,7 @@
         <v>0.02514121672229586</v>
       </c>
       <c r="E249" t="n">
-        <v>0.543661971830986</v>
+        <v>0.5408450704225352</v>
       </c>
       <c r="F249" t="n">
         <v>355</v>
@@ -5945,7 +5945,7 @@
         <v>0.02177274425929223</v>
       </c>
       <c r="E250" t="n">
-        <v>0.4664723032069971</v>
+        <v>0.4606413994169096</v>
       </c>
       <c r="F250" t="n">
         <v>343</v>
@@ -5967,7 +5967,7 @@
         <v>0.03010018181017732</v>
       </c>
       <c r="E251" t="n">
-        <v>0.5225988700564972</v>
+        <v>0.5310734463276836</v>
       </c>
       <c r="F251" t="n">
         <v>354</v>
@@ -5989,7 +5989,7 @@
         <v>0.02639104877964821</v>
       </c>
       <c r="E252" t="n">
-        <v>0.5225225225225225</v>
+        <v>0.5255255255255256</v>
       </c>
       <c r="F252" t="n">
         <v>333</v>
@@ -6011,7 +6011,7 @@
         <v>0.02079733014205696</v>
       </c>
       <c r="E253" t="n">
-        <v>0.4954682779456193</v>
+        <v>0.4743202416918429</v>
       </c>
       <c r="F253" t="n">
         <v>331</v>
@@ -6033,7 +6033,7 @@
         <v>0.04591297269155282</v>
       </c>
       <c r="E254" t="n">
-        <v>0.4604519774011299</v>
+        <v>0.4830508474576271</v>
       </c>
       <c r="F254" t="n">
         <v>353</v>
@@ -6055,7 +6055,7 @@
         <v>0.02180111694730641</v>
       </c>
       <c r="E255" t="n">
-        <v>0.4829721362229102</v>
+        <v>0.4860681114551084</v>
       </c>
       <c r="F255" t="n">
         <v>323</v>
@@ -6077,7 +6077,7 @@
         <v>0.02611690592911186</v>
       </c>
       <c r="E256" t="n">
-        <v>0.4491525423728814</v>
+        <v>0.4463276836158192</v>
       </c>
       <c r="F256" t="n">
         <v>354</v>
@@ -6099,7 +6099,7 @@
         <v>0.03858608906803556</v>
       </c>
       <c r="E257" t="n">
-        <v>0.4548104956268221</v>
+        <v>0.4606413994169096</v>
       </c>
       <c r="F257" t="n">
         <v>343</v>
@@ -6121,7 +6121,7 @@
         <v>0.02415326132514326</v>
       </c>
       <c r="E258" t="n">
-        <v>0.5380281690140845</v>
+        <v>0.5267605633802817</v>
       </c>
       <c r="F258" t="n">
         <v>355</v>
@@ -6143,7 +6143,7 @@
         <v>0.0211040078058024</v>
       </c>
       <c r="E259" t="n">
-        <v>0.5029239766081871</v>
+        <v>0.5146198830409356</v>
       </c>
       <c r="F259" t="n">
         <v>342</v>
@@ -6165,7 +6165,7 @@
         <v>0.03271160728744853</v>
       </c>
       <c r="E260" t="n">
-        <v>0.4576271186440678</v>
+        <v>0.4519774011299435</v>
       </c>
       <c r="F260" t="n">
         <v>354</v>
@@ -6187,7 +6187,7 @@
         <v>0.02412046571179975</v>
       </c>
       <c r="E261" t="n">
-        <v>0.5323943661971831</v>
+        <v>0.523943661971831</v>
       </c>
       <c r="F261" t="n">
         <v>355</v>
@@ -6209,7 +6209,7 @@
         <v>0.02723160495300589</v>
       </c>
       <c r="E262" t="n">
-        <v>0.4548104956268221</v>
+        <v>0.4664723032069971</v>
       </c>
       <c r="F262" t="n">
         <v>343</v>
@@ -6231,7 +6231,7 @@
         <v>0.04154801244144488</v>
       </c>
       <c r="E263" t="n">
-        <v>0.5028248587570622</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="F263" t="n">
         <v>354</v>
@@ -6253,7 +6253,7 @@
         <v>0.02395920919839168</v>
       </c>
       <c r="E264" t="n">
-        <v>0.4954954954954955</v>
+        <v>0.4984984984984985</v>
       </c>
       <c r="F264" t="n">
         <v>333</v>
@@ -6275,7 +6275,7 @@
         <v>0.02328734617131868</v>
       </c>
       <c r="E265" t="n">
-        <v>0.43202416918429</v>
+        <v>0.4138972809667674</v>
       </c>
       <c r="F265" t="n">
         <v>331</v>
@@ -6297,7 +6297,7 @@
         <v>0.0300491380859619</v>
       </c>
       <c r="E266" t="n">
-        <v>0.4971751412429379</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="F266" t="n">
         <v>353</v>
@@ -6319,7 +6319,7 @@
         <v>0.0317089404773576</v>
       </c>
       <c r="E267" t="n">
-        <v>0.5077399380804953</v>
+        <v>0.4953560371517028</v>
       </c>
       <c r="F267" t="n">
         <v>323</v>
@@ -6363,7 +6363,7 @@
         <v>0.02770895654624522</v>
       </c>
       <c r="E269" t="n">
-        <v>0.4548104956268221</v>
+        <v>0.4635568513119533</v>
       </c>
       <c r="F269" t="n">
         <v>343</v>
@@ -6385,7 +6385,7 @@
         <v>0.03201754230867075</v>
       </c>
       <c r="E270" t="n">
-        <v>0.543661971830986</v>
+        <v>0.5323943661971831</v>
       </c>
       <c r="F270" t="n">
         <v>355</v>
@@ -6407,7 +6407,7 @@
         <v>0.02448720445881099</v>
       </c>
       <c r="E271" t="n">
-        <v>0.4853801169590643</v>
+        <v>0.4883040935672515</v>
       </c>
       <c r="F271" t="n">
         <v>342</v>
@@ -6429,7 +6429,7 @@
         <v>0.02272578013376885</v>
       </c>
       <c r="E272" t="n">
-        <v>0.4830508474576271</v>
+        <v>0.4858757062146893</v>
       </c>
       <c r="F272" t="n">
         <v>354</v>
@@ -6451,7 +6451,7 @@
         <v>0.02910069538761706</v>
       </c>
       <c r="E273" t="n">
-        <v>0.5295774647887324</v>
+        <v>0.5183098591549296</v>
       </c>
       <c r="F273" t="n">
         <v>355</v>
@@ -6473,7 +6473,7 @@
         <v>0.02379958734170727</v>
       </c>
       <c r="E274" t="n">
-        <v>0.4577259475218659</v>
+        <v>0.4664723032069971</v>
       </c>
       <c r="F274" t="n">
         <v>343</v>
@@ -6495,7 +6495,7 @@
         <v>0.02591426310890583</v>
       </c>
       <c r="E275" t="n">
-        <v>0.519774011299435</v>
+        <v>0.5282485875706214</v>
       </c>
       <c r="F275" t="n">
         <v>354</v>
@@ -6517,7 +6517,7 @@
         <v>0.03432631122445962</v>
       </c>
       <c r="E276" t="n">
-        <v>0.5195195195195195</v>
+        <v>0.5075075075075075</v>
       </c>
       <c r="F276" t="n">
         <v>333</v>
@@ -6539,7 +6539,7 @@
         <v>0.02294527012206135</v>
       </c>
       <c r="E277" t="n">
-        <v>0.4501510574018127</v>
+        <v>0.4350453172205438</v>
       </c>
       <c r="F277" t="n">
         <v>331</v>
@@ -6555,16 +6555,16 @@
         <v>1</v>
       </c>
       <c r="C278" t="n">
-        <v>0.002520071178832773</v>
+        <v>0.002671426805189096</v>
       </c>
       <c r="D278" t="n">
-        <v>0.02236546000506058</v>
+        <v>0.02302046066878366</v>
       </c>
       <c r="E278" t="n">
-        <v>0.4971751412429379</v>
+        <v>0.5225225225225225</v>
       </c>
       <c r="F278" t="n">
-        <v>353</v>
+        <v>333</v>
       </c>
     </row>
     <row r="279">
@@ -6577,16 +6577,16 @@
         <v>2</v>
       </c>
       <c r="C279" t="n">
-        <v>0.002975603926079579</v>
+        <v>0.003172013426150838</v>
       </c>
       <c r="D279" t="n">
-        <v>0.02461072982805612</v>
+        <v>0.0254002900715768</v>
       </c>
       <c r="E279" t="n">
-        <v>0.5046439628482973</v>
+        <v>0.5148514851485149</v>
       </c>
       <c r="F279" t="n">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="280">
@@ -6599,16 +6599,16 @@
         <v>3</v>
       </c>
       <c r="C280" t="n">
-        <v>0.0001265449250031274</v>
+        <v>0.0001353380768915622</v>
       </c>
       <c r="D280" t="n">
-        <v>0.03236884704111364</v>
+        <v>0.03347783633355562</v>
       </c>
       <c r="E280" t="n">
-        <v>0.4491525423728814</v>
+        <v>0.4501510574018127</v>
       </c>
       <c r="F280" t="n">
-        <v>354</v>
+        <v>331</v>
       </c>
     </row>
     <row r="281">
@@ -6621,16 +6621,16 @@
         <v>4</v>
       </c>
       <c r="C281" t="n">
-        <v>0.0005227924985568704</v>
+        <v>0.0005586225140342883</v>
       </c>
       <c r="D281" t="n">
-        <v>0.03006719207654232</v>
+        <v>0.0310832501368921</v>
       </c>
       <c r="E281" t="n">
-        <v>0.4752186588921283</v>
+        <v>0.4890965732087227</v>
       </c>
       <c r="F281" t="n">
-        <v>343</v>
+        <v>321</v>
       </c>
     </row>
     <row r="282">
@@ -6643,16 +6643,16 @@
         <v>5</v>
       </c>
       <c r="C282" t="n">
-        <v>0.00127147950705246</v>
+        <v>0.001351422829352165</v>
       </c>
       <c r="D282" t="n">
-        <v>0.02498640313237612</v>
+        <v>0.02576011515684358</v>
       </c>
       <c r="E282" t="n">
-        <v>0.4873239436619718</v>
+        <v>0.4730538922155689</v>
       </c>
       <c r="F282" t="n">
-        <v>355</v>
+        <v>334</v>
       </c>
     </row>
     <row r="283">
@@ -6665,16 +6665,16 @@
         <v>6</v>
       </c>
       <c r="C283" t="n">
-        <v>0.0002291063041319763</v>
+        <v>0.0002448573625410497</v>
       </c>
       <c r="D283" t="n">
-        <v>0.02329373231886765</v>
+        <v>0.02408349322304135</v>
       </c>
       <c r="E283" t="n">
-        <v>0.4649122807017544</v>
+        <v>0.45625</v>
       </c>
       <c r="F283" t="n">
-        <v>342</v>
+        <v>320</v>
       </c>
     </row>
     <row r="284">
@@ -6687,16 +6687,16 @@
         <v>7</v>
       </c>
       <c r="C284" t="n">
-        <v>6.452015881601475e-05</v>
+        <v>6.879559102671453e-05</v>
       </c>
       <c r="D284" t="n">
-        <v>0.02141617395592602</v>
+        <v>0.02211643435420018</v>
       </c>
       <c r="E284" t="n">
-        <v>0.4180790960451977</v>
+        <v>0.4367469879518072</v>
       </c>
       <c r="F284" t="n">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="285">
@@ -6709,16 +6709,16 @@
         <v>8</v>
       </c>
       <c r="C285" t="n">
-        <v>-0.0004701877940259096</v>
+        <v>-0.0004769047625119941</v>
       </c>
       <c r="D285" t="n">
-        <v>0.02643269320102264</v>
+        <v>0.02662130544506636</v>
       </c>
       <c r="E285" t="n">
-        <v>0.4873239436619718</v>
+        <v>0.4672364672364672</v>
       </c>
       <c r="F285" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="286">
@@ -6737,7 +6737,7 @@
         <v>0.02509187656131672</v>
       </c>
       <c r="E286" t="n">
-        <v>0.4664723032069971</v>
+        <v>0.4752186588921283</v>
       </c>
       <c r="F286" t="n">
         <v>343</v>
@@ -6759,7 +6759,7 @@
         <v>0.02966863015013546</v>
       </c>
       <c r="E287" t="n">
-        <v>0.4971751412429379</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="F287" t="n">
         <v>354</v>
@@ -6781,7 +6781,7 @@
         <v>0.02311046808676781</v>
       </c>
       <c r="E288" t="n">
-        <v>0.5015015015015015</v>
+        <v>0.4954954954954955</v>
       </c>
       <c r="F288" t="n">
         <v>333</v>
@@ -6803,7 +6803,7 @@
         <v>0.02364617783778385</v>
       </c>
       <c r="E289" t="n">
-        <v>0.4712990936555891</v>
+        <v>0.4501510574018127</v>
       </c>
       <c r="F289" t="n">
         <v>331</v>
@@ -6825,7 +6825,7 @@
         <v>0.02100718179844188</v>
       </c>
       <c r="E290" t="n">
-        <v>0.4322033898305085</v>
+        <v>0.4548022598870056</v>
       </c>
       <c r="F290" t="n">
         <v>353</v>
@@ -6869,7 +6869,7 @@
         <v>0.04290871190009329</v>
       </c>
       <c r="E292" t="n">
-        <v>0.5</v>
+        <v>0.5056497175141242</v>
       </c>
       <c r="F292" t="n">
         <v>354</v>
@@ -6891,7 +6891,7 @@
         <v>0.02818658436019839</v>
       </c>
       <c r="E293" t="n">
-        <v>0.4927113702623906</v>
+        <v>0.478134110787172</v>
       </c>
       <c r="F293" t="n">
         <v>343</v>
@@ -6913,7 +6913,7 @@
         <v>0.02363656469734148</v>
       </c>
       <c r="E294" t="n">
-        <v>0.4309859154929577</v>
+        <v>0.4366197183098591</v>
       </c>
       <c r="F294" t="n">
         <v>355</v>
@@ -6935,7 +6935,7 @@
         <v>0.03182536754783719</v>
       </c>
       <c r="E295" t="n">
-        <v>0.4824561403508772</v>
+        <v>0.4766081871345029</v>
       </c>
       <c r="F295" t="n">
         <v>342</v>
@@ -6979,7 +6979,7 @@
         <v>0.02175215374296113</v>
       </c>
       <c r="E297" t="n">
-        <v>0.4647887323943662</v>
+        <v>0.4563380281690141</v>
       </c>
       <c r="F297" t="n">
         <v>355</v>
@@ -7001,7 +7001,7 @@
         <v>0.02181132809692721</v>
       </c>
       <c r="E298" t="n">
-        <v>0.4052478134110787</v>
+        <v>0.4227405247813411</v>
       </c>
       <c r="F298" t="n">
         <v>343</v>
@@ -7045,7 +7045,7 @@
         <v>0.02681772555134885</v>
       </c>
       <c r="E300" t="n">
-        <v>0.4624624624624625</v>
+        <v>0.4564564564564564</v>
       </c>
       <c r="F300" t="n">
         <v>333</v>
@@ -7067,7 +7067,7 @@
         <v>0.02116085361571776</v>
       </c>
       <c r="E301" t="n">
-        <v>0.4652567975830816</v>
+        <v>0.4471299093655589</v>
       </c>
       <c r="F301" t="n">
         <v>331</v>
@@ -7089,7 +7089,7 @@
         <v>0.0247983237642918</v>
       </c>
       <c r="E302" t="n">
-        <v>0.4632768361581921</v>
+        <v>0.4887005649717514</v>
       </c>
       <c r="F302" t="n">
         <v>353</v>
@@ -7111,7 +7111,7 @@
         <v>0.02942132427347684</v>
       </c>
       <c r="E303" t="n">
-        <v>0.4674922600619195</v>
+        <v>0.4643962848297213</v>
       </c>
       <c r="F303" t="n">
         <v>323</v>
@@ -7133,7 +7133,7 @@
         <v>0.03769745959186975</v>
       </c>
       <c r="E304" t="n">
-        <v>0.4887005649717514</v>
+        <v>0.4774011299435028</v>
       </c>
       <c r="F304" t="n">
         <v>354</v>
@@ -7155,7 +7155,7 @@
         <v>0.03242723713623135</v>
       </c>
       <c r="E305" t="n">
-        <v>0.4402332361516035</v>
+        <v>0.4548104956268221</v>
       </c>
       <c r="F305" t="n">
         <v>343</v>
@@ -7177,7 +7177,7 @@
         <v>0.02654995485665346</v>
       </c>
       <c r="E306" t="n">
-        <v>0.5042253521126761</v>
+        <v>0.4957746478873239</v>
       </c>
       <c r="F306" t="n">
         <v>355</v>
@@ -7199,7 +7199,7 @@
         <v>0.02521111599258377</v>
       </c>
       <c r="E307" t="n">
-        <v>0.456140350877193</v>
+        <v>0.4590643274853801</v>
       </c>
       <c r="F307" t="n">
         <v>342</v>
@@ -7221,7 +7221,7 @@
         <v>0.02556512134745147</v>
       </c>
       <c r="E308" t="n">
-        <v>0.4915254237288136</v>
+        <v>0.4943502824858757</v>
       </c>
       <c r="F308" t="n">
         <v>354</v>
@@ -7243,7 +7243,7 @@
         <v>0.02927900314976793</v>
       </c>
       <c r="E309" t="n">
-        <v>0.4816901408450704</v>
+        <v>0.4732394366197183</v>
       </c>
       <c r="F309" t="n">
         <v>355</v>
@@ -7265,7 +7265,7 @@
         <v>0.02272847122925271</v>
       </c>
       <c r="E310" t="n">
-        <v>0.5014577259475219</v>
+        <v>0.4956268221574344</v>
       </c>
       <c r="F310" t="n">
         <v>343</v>
@@ -7287,7 +7287,7 @@
         <v>0.03225174089119512</v>
       </c>
       <c r="E311" t="n">
-        <v>0.4971751412429379</v>
+        <v>0.519774011299435</v>
       </c>
       <c r="F311" t="n">
         <v>354</v>
@@ -7309,7 +7309,7 @@
         <v>0.02632460055689897</v>
       </c>
       <c r="E312" t="n">
-        <v>0.5105105105105106</v>
+        <v>0.5045045045045045</v>
       </c>
       <c r="F312" t="n">
         <v>333</v>
@@ -7331,7 +7331,7 @@
         <v>0.02253384963159553</v>
       </c>
       <c r="E313" t="n">
-        <v>0.5015105740181269</v>
+        <v>0.4743202416918429</v>
       </c>
       <c r="F313" t="n">
         <v>331</v>
@@ -7353,7 +7353,7 @@
         <v>0.02241550946484508</v>
       </c>
       <c r="E314" t="n">
-        <v>0.4265536723163842</v>
+        <v>0.4491525423728814</v>
       </c>
       <c r="F314" t="n">
         <v>353</v>
@@ -7375,7 +7375,7 @@
         <v>0.02610238487979503</v>
       </c>
       <c r="E315" t="n">
-        <v>0.4891640866873065</v>
+        <v>0.4922600619195047</v>
       </c>
       <c r="F315" t="n">
         <v>323</v>
@@ -7397,7 +7397,7 @@
         <v>0.03906932175407943</v>
       </c>
       <c r="E316" t="n">
-        <v>0.5028248587570622</v>
+        <v>0.4858757062146893</v>
       </c>
       <c r="F316" t="n">
         <v>354</v>
@@ -7419,7 +7419,7 @@
         <v>0.02687156646225298</v>
       </c>
       <c r="E317" t="n">
-        <v>0.446064139941691</v>
+        <v>0.4577259475218659</v>
       </c>
       <c r="F317" t="n">
         <v>343</v>
@@ -7441,7 +7441,7 @@
         <v>0.03095338237429754</v>
       </c>
       <c r="E318" t="n">
-        <v>0.4704225352112676</v>
+        <v>0.4647887323943662</v>
       </c>
       <c r="F318" t="n">
         <v>355</v>
@@ -7463,7 +7463,7 @@
         <v>0.02421319716294009</v>
       </c>
       <c r="E319" t="n">
-        <v>0.4883040935672515</v>
+        <v>0.4970760233918128</v>
       </c>
       <c r="F319" t="n">
         <v>342</v>
@@ -7485,7 +7485,7 @@
         <v>0.01859654712580354</v>
       </c>
       <c r="E320" t="n">
-        <v>0.4689265536723164</v>
+        <v>0.4632768361581921</v>
       </c>
       <c r="F320" t="n">
         <v>354</v>
@@ -7507,7 +7507,7 @@
         <v>0.03334184996753914</v>
       </c>
       <c r="E321" t="n">
-        <v>0.4394366197183099</v>
+        <v>0.428169014084507</v>
       </c>
       <c r="F321" t="n">
         <v>355</v>
@@ -7529,7 +7529,7 @@
         <v>0.02265094548042803</v>
       </c>
       <c r="E322" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4402332361516035</v>
       </c>
       <c r="F322" t="n">
         <v>343</v>
@@ -7551,7 +7551,7 @@
         <v>0.01899875998664429</v>
       </c>
       <c r="E323" t="n">
-        <v>0.4689265536723164</v>
+        <v>0.4774011299435028</v>
       </c>
       <c r="F323" t="n">
         <v>354</v>
@@ -7573,7 +7573,7 @@
         <v>0.02687186299870538</v>
       </c>
       <c r="E324" t="n">
-        <v>0.5255255255255256</v>
+        <v>0.5165165165165165</v>
       </c>
       <c r="F324" t="n">
         <v>333</v>
@@ -7595,7 +7595,7 @@
         <v>0.02058778537148996</v>
       </c>
       <c r="E325" t="n">
-        <v>0.4682779456193353</v>
+        <v>0.4501510574018127</v>
       </c>
       <c r="F325" t="n">
         <v>331</v>
@@ -7617,7 +7617,7 @@
         <v>0.0562461037886051</v>
       </c>
       <c r="E326" t="n">
-        <v>0.4265536723163842</v>
+        <v>0.4463276836158192</v>
       </c>
       <c r="F326" t="n">
         <v>353</v>
@@ -7639,7 +7639,7 @@
         <v>0.02093959239683114</v>
       </c>
       <c r="E327" t="n">
-        <v>0.4551083591331269</v>
+        <v>0.4613003095975232</v>
       </c>
       <c r="F327" t="n">
         <v>323</v>
@@ -7705,7 +7705,7 @@
         <v>0.01757151853822932</v>
       </c>
       <c r="E330" t="n">
-        <v>0.4873239436619718</v>
+        <v>0.4816901408450704</v>
       </c>
       <c r="F330" t="n">
         <v>355</v>
@@ -7727,7 +7727,7 @@
         <v>0.02104900499947901</v>
       </c>
       <c r="E331" t="n">
-        <v>0.4532163742690059</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="F331" t="n">
         <v>342</v>
@@ -7749,7 +7749,7 @@
         <v>0.01581058518862747</v>
       </c>
       <c r="E332" t="n">
-        <v>0.423728813559322</v>
+        <v>0.4322033898305085</v>
       </c>
       <c r="F332" t="n">
         <v>354</v>
@@ -7771,7 +7771,7 @@
         <v>0.02324811841862889</v>
       </c>
       <c r="E333" t="n">
-        <v>0.4929577464788732</v>
+        <v>0.4732394366197183</v>
       </c>
       <c r="F333" t="n">
         <v>355</v>
@@ -7793,7 +7793,7 @@
         <v>0.01772261318529333</v>
       </c>
       <c r="E334" t="n">
-        <v>0.4577259475218659</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="F334" t="n">
         <v>343</v>
@@ -7815,7 +7815,7 @@
         <v>0.03963750054007549</v>
       </c>
       <c r="E335" t="n">
-        <v>0.5056497175141242</v>
+        <v>0.5</v>
       </c>
       <c r="F335" t="n">
         <v>354</v>
@@ -7859,7 +7859,7 @@
         <v>0.02295241555113329</v>
       </c>
       <c r="E337" t="n">
-        <v>0.4743202416918429</v>
+        <v>0.4561933534743202</v>
       </c>
       <c r="F337" t="n">
         <v>331</v>
@@ -7881,7 +7881,7 @@
         <v>0.02346465586788642</v>
       </c>
       <c r="E338" t="n">
-        <v>0.4830508474576271</v>
+        <v>0.5</v>
       </c>
       <c r="F338" t="n">
         <v>353</v>
@@ -7903,7 +7903,7 @@
         <v>0.02620151771808104</v>
       </c>
       <c r="E339" t="n">
-        <v>0.4458204334365325</v>
+        <v>0.4334365325077399</v>
       </c>
       <c r="F339" t="n">
         <v>323</v>
@@ -7925,7 +7925,7 @@
         <v>0.04265744804507906</v>
       </c>
       <c r="E340" t="n">
-        <v>0.4689265536723164</v>
+        <v>0.4774011299435028</v>
       </c>
       <c r="F340" t="n">
         <v>354</v>
@@ -7947,7 +7947,7 @@
         <v>0.03503148564475195</v>
       </c>
       <c r="E341" t="n">
-        <v>0.4868804664723032</v>
+        <v>0.4985422740524781</v>
       </c>
       <c r="F341" t="n">
         <v>343</v>
@@ -7969,7 +7969,7 @@
         <v>0.02980811300394381</v>
       </c>
       <c r="E342" t="n">
-        <v>0.476056338028169</v>
+        <v>0.4704225352112676</v>
       </c>
       <c r="F342" t="n">
         <v>355</v>
@@ -7991,7 +7991,7 @@
         <v>0.0332922793630084</v>
       </c>
       <c r="E343" t="n">
-        <v>0.4883040935672515</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="F343" t="n">
         <v>342</v>
@@ -8013,7 +8013,7 @@
         <v>0.02859617846695382</v>
       </c>
       <c r="E344" t="n">
-        <v>0.4576271186440678</v>
+        <v>0.4435028248587571</v>
       </c>
       <c r="F344" t="n">
         <v>354</v>
@@ -8035,7 +8035,7 @@
         <v>0.02703905337442761</v>
       </c>
       <c r="E345" t="n">
-        <v>0.4957746478873239</v>
+        <v>0.4901408450704225</v>
       </c>
       <c r="F345" t="n">
         <v>355</v>
@@ -8057,7 +8057,7 @@
         <v>0.02345165460532306</v>
       </c>
       <c r="E346" t="n">
-        <v>0.5218658892128279</v>
+        <v>0.5335276967930029</v>
       </c>
       <c r="F346" t="n">
         <v>343</v>
@@ -8079,7 +8079,7 @@
         <v>0.02928129667432543</v>
       </c>
       <c r="E347" t="n">
-        <v>0.5141242937853108</v>
+        <v>0.5112994350282486</v>
       </c>
       <c r="F347" t="n">
         <v>354</v>
@@ -8101,7 +8101,7 @@
         <v>0.02935969285367594</v>
       </c>
       <c r="E348" t="n">
-        <v>0.4684684684684685</v>
+        <v>0.4744744744744745</v>
       </c>
       <c r="F348" t="n">
         <v>333</v>
@@ -8123,7 +8123,7 @@
         <v>0.02115784311758285</v>
       </c>
       <c r="E349" t="n">
-        <v>0.4682779456193353</v>
+        <v>0.4501510574018127</v>
       </c>
       <c r="F349" t="n">
         <v>331</v>
@@ -8145,7 +8145,7 @@
         <v>0.02826431107147094</v>
       </c>
       <c r="E350" t="n">
-        <v>0.4830508474576271</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="F350" t="n">
         <v>353</v>
@@ -8167,7 +8167,7 @@
         <v>0.02305828599366886</v>
       </c>
       <c r="E351" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.4767801857585139</v>
       </c>
       <c r="F351" t="n">
         <v>323</v>
@@ -8189,7 +8189,7 @@
         <v>0.02748218529028146</v>
       </c>
       <c r="E352" t="n">
-        <v>0.4943502824858757</v>
+        <v>0.4858757062146893</v>
       </c>
       <c r="F352" t="n">
         <v>354</v>
@@ -8211,7 +8211,7 @@
         <v>0.03088856740507357</v>
       </c>
       <c r="E353" t="n">
-        <v>0.4693877551020408</v>
+        <v>0.4664723032069971</v>
       </c>
       <c r="F353" t="n">
         <v>343</v>
@@ -8233,7 +8233,7 @@
         <v>0.02392012948792258</v>
       </c>
       <c r="E354" t="n">
-        <v>0.4957746478873239</v>
+        <v>0.5014084507042254</v>
       </c>
       <c r="F354" t="n">
         <v>355</v>
@@ -8255,7 +8255,7 @@
         <v>0.02365934079862306</v>
       </c>
       <c r="E355" t="n">
-        <v>0.4883040935672515</v>
+        <v>0.4853801169590643</v>
       </c>
       <c r="F355" t="n">
         <v>342</v>
@@ -8277,7 +8277,7 @@
         <v>0.0275243570476525</v>
       </c>
       <c r="E356" t="n">
-        <v>0.4745762711864407</v>
+        <v>0.4887005649717514</v>
       </c>
       <c r="F356" t="n">
         <v>354</v>
@@ -8299,7 +8299,7 @@
         <v>0.02245411149748758</v>
       </c>
       <c r="E357" t="n">
-        <v>0.5577464788732395</v>
+        <v>0.5352112676056338</v>
       </c>
       <c r="F357" t="n">
         <v>355</v>
@@ -8321,7 +8321,7 @@
         <v>0.02255616433854164</v>
       </c>
       <c r="E358" t="n">
-        <v>0.5247813411078717</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="F358" t="n">
         <v>343</v>
@@ -8343,7 +8343,7 @@
         <v>0.03366179343862401</v>
       </c>
       <c r="E359" t="n">
-        <v>0.5141242937853108</v>
+        <v>0.5282485875706214</v>
       </c>
       <c r="F359" t="n">
         <v>354</v>
@@ -8365,7 +8365,7 @@
         <v>0.02225218800558967</v>
       </c>
       <c r="E360" t="n">
-        <v>0.4984984984984985</v>
+        <v>0.5045045045045045</v>
       </c>
       <c r="F360" t="n">
         <v>333</v>
@@ -8387,7 +8387,7 @@
         <v>0.01914654423459159</v>
       </c>
       <c r="E361" t="n">
-        <v>0.513595166163142</v>
+        <v>0.4743202416918429</v>
       </c>
       <c r="F361" t="n">
         <v>331</v>
@@ -8409,7 +8409,7 @@
         <v>0.02575345712486512</v>
       </c>
       <c r="E362" t="n">
-        <v>0.480225988700565</v>
+        <v>0.5056497175141242</v>
       </c>
       <c r="F362" t="n">
         <v>353</v>
@@ -8431,7 +8431,7 @@
         <v>0.02907755043856312</v>
       </c>
       <c r="E363" t="n">
-        <v>0.5108359133126935</v>
+        <v>0.5077399380804953</v>
       </c>
       <c r="F363" t="n">
         <v>323</v>
@@ -8453,7 +8453,7 @@
         <v>0.02960170086803885</v>
       </c>
       <c r="E364" t="n">
-        <v>0.5056497175141242</v>
+        <v>0.4830508474576271</v>
       </c>
       <c r="F364" t="n">
         <v>354</v>
@@ -8475,7 +8475,7 @@
         <v>0.02995102713361461</v>
       </c>
       <c r="E365" t="n">
-        <v>0.4431486880466473</v>
+        <v>0.4577259475218659</v>
       </c>
       <c r="F365" t="n">
         <v>343</v>
@@ -8497,7 +8497,7 @@
         <v>0.0239943138845389</v>
       </c>
       <c r="E366" t="n">
-        <v>0.4957746478873239</v>
+        <v>0.4985915492957746</v>
       </c>
       <c r="F366" t="n">
         <v>355</v>
@@ -8519,7 +8519,7 @@
         <v>0.02386362896008093</v>
       </c>
       <c r="E367" t="n">
-        <v>0.5029239766081871</v>
+        <v>0.4970760233918128</v>
       </c>
       <c r="F367" t="n">
         <v>342</v>
@@ -8541,7 +8541,7 @@
         <v>0.02501591076893647</v>
       </c>
       <c r="E368" t="n">
-        <v>0.480225988700565</v>
+        <v>0.4887005649717514</v>
       </c>
       <c r="F368" t="n">
         <v>354</v>
@@ -8563,7 +8563,7 @@
         <v>0.02256232407794429</v>
       </c>
       <c r="E369" t="n">
-        <v>0.4957746478873239</v>
+        <v>0.4873239436619718</v>
       </c>
       <c r="F369" t="n">
         <v>355</v>
@@ -8585,7 +8585,7 @@
         <v>0.02432594214810996</v>
       </c>
       <c r="E370" t="n">
-        <v>0.4431486880466473</v>
+        <v>0.4373177842565598</v>
       </c>
       <c r="F370" t="n">
         <v>343</v>
@@ -8607,7 +8607,7 @@
         <v>0.02462291770673994</v>
       </c>
       <c r="E371" t="n">
-        <v>0.4887005649717514</v>
+        <v>0.5028248587570622</v>
       </c>
       <c r="F371" t="n">
         <v>354</v>
@@ -8629,7 +8629,7 @@
         <v>0.02654929820885373</v>
       </c>
       <c r="E372" t="n">
-        <v>0.4294294294294294</v>
+        <v>0.4264264264264264</v>
       </c>
       <c r="F372" t="n">
         <v>333</v>
@@ -8651,7 +8651,7 @@
         <v>0.01983438214244168</v>
       </c>
       <c r="E373" t="n">
-        <v>0.5166163141993958</v>
+        <v>0.4984894259818731</v>
       </c>
       <c r="F373" t="n">
         <v>331</v>
@@ -8673,7 +8673,7 @@
         <v>0.04291022208067094</v>
       </c>
       <c r="E374" t="n">
-        <v>0.4548022598870056</v>
+        <v>0.4717514124293785</v>
       </c>
       <c r="F374" t="n">
         <v>353</v>
@@ -8695,7 +8695,7 @@
         <v>0.0449096111292937</v>
       </c>
       <c r="E375" t="n">
-        <v>0.4891640866873065</v>
+        <v>0.4953560371517028</v>
       </c>
       <c r="F375" t="n">
         <v>323</v>
@@ -8739,7 +8739,7 @@
         <v>0.03698821577216449</v>
       </c>
       <c r="E377" t="n">
-        <v>0.4548104956268221</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="F377" t="n">
         <v>343</v>
@@ -8761,7 +8761,7 @@
         <v>0.04048719672610328</v>
       </c>
       <c r="E378" t="n">
-        <v>0.4788732394366197</v>
+        <v>0.4816901408450704</v>
       </c>
       <c r="F378" t="n">
         <v>355</v>
@@ -8783,7 +8783,7 @@
         <v>0.02973726638242134</v>
       </c>
       <c r="E379" t="n">
-        <v>0.5</v>
+        <v>0.4883040935672515</v>
       </c>
       <c r="F379" t="n">
         <v>342</v>
@@ -8827,7 +8827,7 @@
         <v>0.04281844520629646</v>
       </c>
       <c r="E381" t="n">
-        <v>0.4845070422535211</v>
+        <v>0.4816901408450704</v>
       </c>
       <c r="F381" t="n">
         <v>355</v>
@@ -8849,7 +8849,7 @@
         <v>0.02663588108542383</v>
       </c>
       <c r="E382" t="n">
-        <v>0.4927113702623906</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="F382" t="n">
         <v>343</v>
@@ -8871,7 +8871,7 @@
         <v>0.04703075456560982</v>
       </c>
       <c r="E383" t="n">
-        <v>0.4745762711864407</v>
+        <v>0.4689265536723164</v>
       </c>
       <c r="F383" t="n">
         <v>354</v>
@@ -8893,7 +8893,7 @@
         <v>0.04353171959549787</v>
       </c>
       <c r="E384" t="n">
-        <v>0.4804804804804805</v>
+        <v>0.4774774774774775</v>
       </c>
       <c r="F384" t="n">
         <v>333</v>
@@ -8915,7 +8915,7 @@
         <v>0.03077849860558194</v>
       </c>
       <c r="E385" t="n">
-        <v>0.4743202416918429</v>
+        <v>0.4561933534743202</v>
       </c>
       <c r="F385" t="n">
         <v>331</v>
@@ -8931,16 +8931,16 @@
         <v>1</v>
       </c>
       <c r="C386" t="n">
-        <v>0.002345554490834683</v>
+        <v>0.002486428634428358</v>
       </c>
       <c r="D386" t="n">
-        <v>0.03567153200854624</v>
+        <v>0.03672548128308896</v>
       </c>
       <c r="E386" t="n">
-        <v>0.4661016949152542</v>
+        <v>0.4894894894894895</v>
       </c>
       <c r="F386" t="n">
-        <v>353</v>
+        <v>333</v>
       </c>
     </row>
     <row r="387">
@@ -8953,16 +8953,16 @@
         <v>2</v>
       </c>
       <c r="C387" t="n">
-        <v>0.0008938406958212344</v>
+        <v>0.0009528400816840221</v>
       </c>
       <c r="D387" t="n">
-        <v>0.03640962322688674</v>
+        <v>0.0375951640150349</v>
       </c>
       <c r="E387" t="n">
-        <v>0.4643962848297213</v>
+        <v>0.462046204620462</v>
       </c>
       <c r="F387" t="n">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="388">
@@ -8975,16 +8975,16 @@
         <v>3</v>
       </c>
       <c r="C388" t="n">
-        <v>-4.114897575357331e-05</v>
+        <v>-4.400827014128384e-05</v>
       </c>
       <c r="D388" t="n">
-        <v>0.03927893754767448</v>
+        <v>0.04062469357870344</v>
       </c>
       <c r="E388" t="n">
-        <v>0.4745762711864407</v>
+        <v>0.4894259818731118</v>
       </c>
       <c r="F388" t="n">
-        <v>354</v>
+        <v>331</v>
       </c>
     </row>
     <row r="389">
@@ -8997,16 +8997,16 @@
         <v>4</v>
       </c>
       <c r="C389" t="n">
-        <v>0.002630918294325099</v>
+        <v>0.002811230451568563</v>
       </c>
       <c r="D389" t="n">
-        <v>0.03819486913249942</v>
+        <v>0.03947955606247894</v>
       </c>
       <c r="E389" t="n">
-        <v>0.4577259475218659</v>
+        <v>0.4610591900311526</v>
       </c>
       <c r="F389" t="n">
-        <v>343</v>
+        <v>321</v>
       </c>
     </row>
     <row r="390">
@@ -9019,16 +9019,16 @@
         <v>5</v>
       </c>
       <c r="C390" t="n">
-        <v>0.002251892673346142</v>
+        <v>0.002393478739634372</v>
       </c>
       <c r="D390" t="n">
-        <v>0.03529455139863621</v>
+        <v>0.03638575893259374</v>
       </c>
       <c r="E390" t="n">
-        <v>0.476056338028169</v>
+        <v>0.4640718562874251</v>
       </c>
       <c r="F390" t="n">
-        <v>355</v>
+        <v>334</v>
       </c>
     </row>
     <row r="391">
@@ -9041,16 +9041,16 @@
         <v>6</v>
       </c>
       <c r="C391" t="n">
-        <v>0.00397217136705362</v>
+        <v>0.004232033045272082</v>
       </c>
       <c r="D391" t="n">
-        <v>0.030183340468752</v>
+        <v>0.03114028694380046</v>
       </c>
       <c r="E391" t="n">
-        <v>0.5467836257309941</v>
+        <v>0.5559006211180124</v>
       </c>
       <c r="F391" t="n">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="392">
@@ -9091,7 +9091,7 @@
         <v>0.03320302940076098</v>
       </c>
       <c r="E393" t="n">
-        <v>0.4845070422535211</v>
+        <v>0.4704225352112676</v>
       </c>
       <c r="F393" t="n">
         <v>355</v>
@@ -9113,7 +9113,7 @@
         <v>0.03328245561620893</v>
       </c>
       <c r="E394" t="n">
-        <v>0.5451895043731778</v>
+        <v>0.565597667638484</v>
       </c>
       <c r="F394" t="n">
         <v>343</v>
@@ -9135,7 +9135,7 @@
         <v>0.03466422158039601</v>
       </c>
       <c r="E395" t="n">
-        <v>0.4774011299435028</v>
+        <v>0.4830508474576271</v>
       </c>
       <c r="F395" t="n">
         <v>354</v>
@@ -9157,7 +9157,7 @@
         <v>0.03706025806044574</v>
       </c>
       <c r="E396" t="n">
-        <v>0.5165165165165165</v>
+        <v>0.5045045045045045</v>
       </c>
       <c r="F396" t="n">
         <v>333</v>
@@ -9179,7 +9179,7 @@
         <v>0.03285655815554766</v>
       </c>
       <c r="E397" t="n">
-        <v>0.4833836858006043</v>
+        <v>0.4652567975830816</v>
       </c>
       <c r="F397" t="n">
         <v>331</v>
@@ -9201,7 +9201,7 @@
         <v>0.02255585713415895</v>
       </c>
       <c r="E398" t="n">
-        <v>0.4406779661016949</v>
+        <v>0.4632768361581921</v>
       </c>
       <c r="F398" t="n">
         <v>353</v>
@@ -9223,7 +9223,7 @@
         <v>0.0229601165452548</v>
       </c>
       <c r="E399" t="n">
-        <v>0.5201238390092879</v>
+        <v>0.5170278637770898</v>
       </c>
       <c r="F399" t="n">
         <v>323</v>
@@ -9245,7 +9245,7 @@
         <v>0.03609543570654873</v>
       </c>
       <c r="E400" t="n">
-        <v>0.519774011299435</v>
+        <v>0.5282485875706214</v>
       </c>
       <c r="F400" t="n">
         <v>354</v>
@@ -9267,7 +9267,7 @@
         <v>0.02590898514632903</v>
       </c>
       <c r="E401" t="n">
-        <v>0.4868804664723032</v>
+        <v>0.4927113702623906</v>
       </c>
       <c r="F401" t="n">
         <v>343</v>
@@ -9289,7 +9289,7 @@
         <v>0.02302046927998509</v>
       </c>
       <c r="E402" t="n">
-        <v>0.523943661971831</v>
+        <v>0.5154929577464789</v>
       </c>
       <c r="F402" t="n">
         <v>355</v>
@@ -9311,7 +9311,7 @@
         <v>0.02558917921649996</v>
       </c>
       <c r="E403" t="n">
-        <v>0.4883040935672515</v>
+        <v>0.4824561403508772</v>
       </c>
       <c r="F403" t="n">
         <v>342</v>
@@ -9333,7 +9333,7 @@
         <v>0.01772216200603031</v>
       </c>
       <c r="E404" t="n">
-        <v>0.4491525423728814</v>
+        <v>0.4463276836158192</v>
       </c>
       <c r="F404" t="n">
         <v>354</v>
@@ -9355,7 +9355,7 @@
         <v>0.02386152884354711</v>
       </c>
       <c r="E405" t="n">
-        <v>0.5267605633802817</v>
+        <v>0.5154929577464789</v>
       </c>
       <c r="F405" t="n">
         <v>355</v>
@@ -9377,7 +9377,7 @@
         <v>0.0275298684729832</v>
       </c>
       <c r="E406" t="n">
-        <v>0.478134110787172</v>
+        <v>0.4985422740524781</v>
       </c>
       <c r="F406" t="n">
         <v>343</v>
@@ -9399,7 +9399,7 @@
         <v>0.02394388282367252</v>
       </c>
       <c r="E407" t="n">
-        <v>0.5</v>
+        <v>0.5028248587570622</v>
       </c>
       <c r="F407" t="n">
         <v>354</v>
@@ -9421,7 +9421,7 @@
         <v>0.02870000025029665</v>
       </c>
       <c r="E408" t="n">
-        <v>0.5045045045045045</v>
+        <v>0.4894894894894895</v>
       </c>
       <c r="F408" t="n">
         <v>333</v>
@@ -9443,7 +9443,7 @@
         <v>0.0259838549659768</v>
       </c>
       <c r="E409" t="n">
-        <v>0.4380664652567976</v>
+        <v>0.4229607250755287</v>
       </c>
       <c r="F409" t="n">
         <v>331</v>
@@ -9465,7 +9465,7 @@
         <v>0.02719302786912527</v>
       </c>
       <c r="E410" t="n">
-        <v>0.4322033898305085</v>
+        <v>0.4435028248587571</v>
       </c>
       <c r="F410" t="n">
         <v>353</v>
@@ -9509,7 +9509,7 @@
         <v>0.04270400091166617</v>
       </c>
       <c r="E412" t="n">
-        <v>0.4519774011299435</v>
+        <v>0.4435028248587571</v>
       </c>
       <c r="F412" t="n">
         <v>354</v>
@@ -9531,7 +9531,7 @@
         <v>0.03856608185101446</v>
       </c>
       <c r="E413" t="n">
-        <v>0.446064139941691</v>
+        <v>0.4606413994169096</v>
       </c>
       <c r="F413" t="n">
         <v>343</v>
@@ -9575,7 +9575,7 @@
         <v>0.03409129109405889</v>
       </c>
       <c r="E415" t="n">
-        <v>0.4619883040935672</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="F415" t="n">
         <v>342</v>
@@ -9597,7 +9597,7 @@
         <v>0.0292887854817578</v>
       </c>
       <c r="E416" t="n">
-        <v>0.423728813559322</v>
+        <v>0.4096045197740113</v>
       </c>
       <c r="F416" t="n">
         <v>354</v>
@@ -9619,7 +9619,7 @@
         <v>0.02644032122100869</v>
       </c>
       <c r="E417" t="n">
-        <v>0.4732394366197183</v>
+        <v>0.4704225352112676</v>
       </c>
       <c r="F417" t="n">
         <v>355</v>
@@ -9641,7 +9641,7 @@
         <v>0.02304425559116759</v>
       </c>
       <c r="E418" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5131195335276968</v>
       </c>
       <c r="F418" t="n">
         <v>343</v>
@@ -9663,7 +9663,7 @@
         <v>0.02724319170242739</v>
       </c>
       <c r="E419" t="n">
-        <v>0.5084745762711864</v>
+        <v>0.5169491525423728</v>
       </c>
       <c r="F419" t="n">
         <v>354</v>
@@ -9685,7 +9685,7 @@
         <v>0.02467651911587533</v>
       </c>
       <c r="E420" t="n">
-        <v>0.4984984984984985</v>
+        <v>0.4834834834834835</v>
       </c>
       <c r="F420" t="n">
         <v>333</v>
@@ -9707,7 +9707,7 @@
         <v>0.02290546364958754</v>
       </c>
       <c r="E421" t="n">
-        <v>0.4138972809667674</v>
+        <v>0.4048338368580061</v>
       </c>
       <c r="F421" t="n">
         <v>331</v>
@@ -9729,7 +9729,7 @@
         <v>0.02831132413366251</v>
       </c>
       <c r="E422" t="n">
-        <v>0.4406779661016949</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="F422" t="n">
         <v>353</v>
@@ -9751,7 +9751,7 @@
         <v>0.02463699811512783</v>
       </c>
       <c r="E423" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.5139318885448917</v>
       </c>
       <c r="F423" t="n">
         <v>323</v>
@@ -9773,7 +9773,7 @@
         <v>0.03263511545368716</v>
       </c>
       <c r="E424" t="n">
-        <v>0.5084745762711864</v>
+        <v>0.5028248587570622</v>
       </c>
       <c r="F424" t="n">
         <v>354</v>
@@ -9795,7 +9795,7 @@
         <v>0.03081201483170172</v>
       </c>
       <c r="E425" t="n">
-        <v>0.4752186588921283</v>
+        <v>0.4723032069970846</v>
       </c>
       <c r="F425" t="n">
         <v>343</v>
@@ -9817,7 +9817,7 @@
         <v>0.02635336919039842</v>
       </c>
       <c r="E426" t="n">
-        <v>0.4704225352112676</v>
+        <v>0.4816901408450704</v>
       </c>
       <c r="F426" t="n">
         <v>355</v>
@@ -9839,7 +9839,7 @@
         <v>0.02832538775461176</v>
       </c>
       <c r="E427" t="n">
-        <v>0.4883040935672515</v>
+        <v>0.4824561403508772</v>
       </c>
       <c r="F427" t="n">
         <v>342</v>
@@ -9861,7 +9861,7 @@
         <v>0.02810967079896799</v>
       </c>
       <c r="E428" t="n">
-        <v>0.4774011299435028</v>
+        <v>0.4689265536723164</v>
       </c>
       <c r="F428" t="n">
         <v>354</v>
@@ -9905,7 +9905,7 @@
         <v>0.02416749946212679</v>
       </c>
       <c r="E430" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5189504373177842</v>
       </c>
       <c r="F430" t="n">
         <v>343</v>
@@ -9927,7 +9927,7 @@
         <v>0.02973544096220921</v>
       </c>
       <c r="E431" t="n">
-        <v>0.5338983050847458</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="F431" t="n">
         <v>354</v>
@@ -9949,7 +9949,7 @@
         <v>0.02620626126212712</v>
       </c>
       <c r="E432" t="n">
-        <v>0.5345345345345346</v>
+        <v>0.5315315315315315</v>
       </c>
       <c r="F432" t="n">
         <v>333</v>
@@ -9971,7 +9971,7 @@
         <v>0.02115077917593327</v>
       </c>
       <c r="E433" t="n">
-        <v>0.5045317220543807</v>
+        <v>0.4773413897280967</v>
       </c>
       <c r="F433" t="n">
         <v>331</v>
@@ -9993,7 +9993,7 @@
         <v>0.01951312346094534</v>
       </c>
       <c r="E434" t="n">
-        <v>0.5254237288135594</v>
+        <v>0.5508474576271186</v>
       </c>
       <c r="F434" t="n">
         <v>353</v>
@@ -10015,7 +10015,7 @@
         <v>0.02100310951868603</v>
       </c>
       <c r="E435" t="n">
-        <v>0.4891640866873065</v>
+        <v>0.4922600619195047</v>
       </c>
       <c r="F435" t="n">
         <v>323</v>
@@ -10037,7 +10037,7 @@
         <v>0.02538043114119311</v>
       </c>
       <c r="E436" t="n">
-        <v>0.5112994350282486</v>
+        <v>0.4887005649717514</v>
       </c>
       <c r="F436" t="n">
         <v>354</v>
@@ -10059,7 +10059,7 @@
         <v>0.03983465636212907</v>
       </c>
       <c r="E437" t="n">
-        <v>0.4635568513119533</v>
+        <v>0.478134110787172</v>
       </c>
       <c r="F437" t="n">
         <v>343</v>
@@ -10081,7 +10081,7 @@
         <v>0.0367875136929991</v>
       </c>
       <c r="E438" t="n">
-        <v>0.4985915492957746</v>
+        <v>0.5042253521126761</v>
       </c>
       <c r="F438" t="n">
         <v>355</v>
@@ -10103,7 +10103,7 @@
         <v>0.03297037553739424</v>
       </c>
       <c r="E439" t="n">
-        <v>0.5116959064327485</v>
+        <v>0.4970760233918128</v>
       </c>
       <c r="F439" t="n">
         <v>342</v>
@@ -10125,7 +10125,7 @@
         <v>0.02084077940981106</v>
       </c>
       <c r="E440" t="n">
-        <v>0.4322033898305085</v>
+        <v>0.4435028248587571</v>
       </c>
       <c r="F440" t="n">
         <v>354</v>
@@ -10147,7 +10147,7 @@
         <v>0.02301401263948127</v>
       </c>
       <c r="E441" t="n">
-        <v>0.4957746478873239</v>
+        <v>0.4873239436619718</v>
       </c>
       <c r="F441" t="n">
         <v>355</v>
@@ -10169,7 +10169,7 @@
         <v>0.01964091967328209</v>
       </c>
       <c r="E442" t="n">
-        <v>0.4402332361516035</v>
+        <v>0.4431486880466473</v>
       </c>
       <c r="F442" t="n">
         <v>343</v>
@@ -10191,7 +10191,7 @@
         <v>0.02560404287744095</v>
       </c>
       <c r="E443" t="n">
-        <v>0.5</v>
+        <v>0.5056497175141242</v>
       </c>
       <c r="F443" t="n">
         <v>354</v>
@@ -10213,7 +10213,7 @@
         <v>0.02280585754292436</v>
       </c>
       <c r="E444" t="n">
-        <v>0.4714714714714714</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="F444" t="n">
         <v>333</v>
@@ -10235,7 +10235,7 @@
         <v>0.02057292072573426</v>
       </c>
       <c r="E445" t="n">
-        <v>0.4531722054380665</v>
+        <v>0.4410876132930514</v>
       </c>
       <c r="F445" t="n">
         <v>331</v>
@@ -10257,7 +10257,7 @@
         <v>0.0248463373563851</v>
       </c>
       <c r="E446" t="n">
-        <v>0.4887005649717514</v>
+        <v>0.5112994350282486</v>
       </c>
       <c r="F446" t="n">
         <v>353</v>
@@ -10279,7 +10279,7 @@
         <v>0.02322317599650209</v>
       </c>
       <c r="E447" t="n">
-        <v>0.5015479876160991</v>
+        <v>0.4922600619195047</v>
       </c>
       <c r="F447" t="n">
         <v>323</v>
@@ -10301,7 +10301,7 @@
         <v>0.03056591602852411</v>
       </c>
       <c r="E448" t="n">
-        <v>0.4915254237288136</v>
+        <v>0.5028248587570622</v>
       </c>
       <c r="F448" t="n">
         <v>354</v>
@@ -10345,7 +10345,7 @@
         <v>0.02378822296271891</v>
       </c>
       <c r="E450" t="n">
-        <v>0.447887323943662</v>
+        <v>0.4394366197183099</v>
       </c>
       <c r="F450" t="n">
         <v>355</v>
@@ -10367,7 +10367,7 @@
         <v>0.02319492203618013</v>
       </c>
       <c r="E451" t="n">
-        <v>0.5029239766081871</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="F451" t="n">
         <v>342</v>
@@ -10389,7 +10389,7 @@
         <v>0.01961351792138661</v>
       </c>
       <c r="E452" t="n">
-        <v>0.4689265536723164</v>
+        <v>0.4548022598870056</v>
       </c>
       <c r="F452" t="n">
         <v>354</v>
@@ -10411,7 +10411,7 @@
         <v>0.02643156739309192</v>
       </c>
       <c r="E453" t="n">
-        <v>0.4732394366197183</v>
+        <v>0.4704225352112676</v>
       </c>
       <c r="F453" t="n">
         <v>355</v>
@@ -10433,7 +10433,7 @@
         <v>0.02875736676071848</v>
       </c>
       <c r="E454" t="n">
-        <v>0.5043731778425656</v>
+        <v>0.5189504373177842</v>
       </c>
       <c r="F454" t="n">
         <v>343</v>
@@ -10455,7 +10455,7 @@
         <v>0.02143888794921077</v>
       </c>
       <c r="E455" t="n">
-        <v>0.4689265536723164</v>
+        <v>0.480225988700565</v>
       </c>
       <c r="F455" t="n">
         <v>354</v>
@@ -10477,7 +10477,7 @@
         <v>0.02949711416701818</v>
       </c>
       <c r="E456" t="n">
-        <v>0.4714714714714714</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="F456" t="n">
         <v>333</v>
@@ -10499,7 +10499,7 @@
         <v>0.02272807001924279</v>
       </c>
       <c r="E457" t="n">
-        <v>0.4471299093655589</v>
+        <v>0.4259818731117825</v>
       </c>
       <c r="F457" t="n">
         <v>331</v>
@@ -10521,7 +10521,7 @@
         <v>0.02546936542778766</v>
       </c>
       <c r="E458" t="n">
-        <v>0.4858757062146893</v>
+        <v>0.5028248587570622</v>
       </c>
       <c r="F458" t="n">
         <v>353</v>
@@ -10543,7 +10543,7 @@
         <v>0.02304221973529357</v>
       </c>
       <c r="E459" t="n">
-        <v>0.4458204334365325</v>
+        <v>0.4613003095975232</v>
       </c>
       <c r="F459" t="n">
         <v>323</v>
@@ -10565,7 +10565,7 @@
         <v>0.0352703516780332</v>
       </c>
       <c r="E460" t="n">
-        <v>0.4604519774011299</v>
+        <v>0.4519774011299435</v>
       </c>
       <c r="F460" t="n">
         <v>354</v>
@@ -10587,7 +10587,7 @@
         <v>0.03049547227710813</v>
       </c>
       <c r="E461" t="n">
-        <v>0.5072886297376094</v>
+        <v>0.5014577259475219</v>
       </c>
       <c r="F461" t="n">
         <v>343</v>
@@ -10631,7 +10631,7 @@
         <v>0.02420759582892777</v>
       </c>
       <c r="E463" t="n">
-        <v>0.4385964912280702</v>
+        <v>0.4415204678362573</v>
       </c>
       <c r="F463" t="n">
         <v>342</v>
@@ -10653,7 +10653,7 @@
         <v>0.02678285762747299</v>
       </c>
       <c r="E464" t="n">
-        <v>0.4830508474576271</v>
+        <v>0.4887005649717514</v>
       </c>
       <c r="F464" t="n">
         <v>354</v>
@@ -10675,7 +10675,7 @@
         <v>0.0245796989065116</v>
       </c>
       <c r="E465" t="n">
-        <v>0.4957746478873239</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="F465" t="n">
         <v>355</v>
@@ -10697,7 +10697,7 @@
         <v>0.02505948524086636</v>
       </c>
       <c r="E466" t="n">
-        <v>0.4664723032069971</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="F466" t="n">
         <v>343</v>
@@ -10719,7 +10719,7 @@
         <v>0.02990930683705399</v>
       </c>
       <c r="E467" t="n">
-        <v>0.4661016949152542</v>
+        <v>0.4887005649717514</v>
       </c>
       <c r="F467" t="n">
         <v>354</v>
@@ -10741,7 +10741,7 @@
         <v>0.02531069848624857</v>
       </c>
       <c r="E468" t="n">
-        <v>0.4954954954954955</v>
+        <v>0.4834834834834835</v>
       </c>
       <c r="F468" t="n">
         <v>333</v>
@@ -10763,7 +10763,7 @@
         <v>0.02260041120449958</v>
       </c>
       <c r="E469" t="n">
-        <v>0.4984894259818731</v>
+        <v>0.4743202416918429</v>
       </c>
       <c r="F469" t="n">
         <v>331</v>
@@ -10785,7 +10785,7 @@
         <v>0.02647183294351274</v>
       </c>
       <c r="E470" t="n">
-        <v>0.4887005649717514</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="F470" t="n">
         <v>353</v>
@@ -10807,7 +10807,7 @@
         <v>0.02542261712154914</v>
       </c>
       <c r="E471" t="n">
-        <v>0.4674922600619195</v>
+        <v>0.4643962848297213</v>
       </c>
       <c r="F471" t="n">
         <v>323</v>
@@ -10829,7 +10829,7 @@
         <v>0.03564968321439006</v>
       </c>
       <c r="E472" t="n">
-        <v>0.4548022598870056</v>
+        <v>0.4661016949152542</v>
       </c>
       <c r="F472" t="n">
         <v>354</v>
@@ -10851,7 +10851,7 @@
         <v>0.03181376549603112</v>
       </c>
       <c r="E473" t="n">
-        <v>0.4723032069970846</v>
+        <v>0.478134110787172</v>
       </c>
       <c r="F473" t="n">
         <v>343</v>
@@ -10873,7 +10873,7 @@
         <v>0.02580539546603369</v>
       </c>
       <c r="E474" t="n">
-        <v>0.4450704225352113</v>
+        <v>0.4253521126760563</v>
       </c>
       <c r="F474" t="n">
         <v>355</v>
@@ -10895,7 +10895,7 @@
         <v>0.02674611240318566</v>
       </c>
       <c r="E475" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4269005847953216</v>
       </c>
       <c r="F475" t="n">
         <v>342</v>
@@ -10939,7 +10939,7 @@
         <v>0.02618979948655896</v>
       </c>
       <c r="E477" t="n">
-        <v>0.4563380281690141</v>
+        <v>0.4394366197183099</v>
       </c>
       <c r="F477" t="n">
         <v>355</v>
@@ -10961,7 +10961,7 @@
         <v>0.02549911045371216</v>
       </c>
       <c r="E478" t="n">
-        <v>0.4752186588921283</v>
+        <v>0.4868804664723032</v>
       </c>
       <c r="F478" t="n">
         <v>343</v>
@@ -10983,7 +10983,7 @@
         <v>0.02982094369243212</v>
       </c>
       <c r="E479" t="n">
-        <v>0.4745762711864407</v>
+        <v>0.4887005649717514</v>
       </c>
       <c r="F479" t="n">
         <v>354</v>
@@ -11005,7 +11005,7 @@
         <v>0.03246334420508415</v>
       </c>
       <c r="E480" t="n">
-        <v>0.4474474474474475</v>
+        <v>0.4384384384384384</v>
       </c>
       <c r="F480" t="n">
         <v>333</v>
@@ -11027,7 +11027,7 @@
         <v>0.02535438279257894</v>
       </c>
       <c r="E481" t="n">
-        <v>0.43202416918429</v>
+        <v>0.4108761329305136</v>
       </c>
       <c r="F481" t="n">
         <v>331</v>
